--- a/5-FuncoesMercadoTrabalho/06. Função SE - Uso em Tabelas - Material(1).xlsx
+++ b/5-FuncoesMercadoTrabalho/06. Função SE - Uso em Tabelas - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaof\Desktop\Excel Impressionador 2021\Módulo 8 - Funções Mercado de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\5-FuncoesMercadoTrabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFDF33F-6775-457B-8A44-F83F9327BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90931921-340D-4646-9D4F-967A3AE9F0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="957" xr2:uid="{85B08948-7BCF-4007-BABB-111144F4B1B5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="957" activeTab="1" xr2:uid="{85B08948-7BCF-4007-BABB-111144F4B1B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercicio1" sheetId="3" r:id="rId1"/>
@@ -2329,8 +2329,8 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -2500,7 +2500,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2519,22 +2519,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2552,6 +2549,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cancel 14" xfId="3" xr:uid="{CBF31453-4DDC-45BF-AC7E-30D18DBD75F7}"/>
@@ -2561,12 +2561,6 @@
     <cellStyle name="Porcentagem" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2584,7 +2578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2592,7 +2586,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2618,6 +2612,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2625,7 +2620,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -2651,7 +2646,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="&quot;R$&quot;\ #,##0"/>
+      <numFmt numFmtId="167" formatCode="&quot;R$&quot;\ #,##0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2717,6 +2712,12 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2731,22 +2732,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F4E3F9D-3F45-4A1E-AE53-8E319ECF5FAF}" name="Tabela2" displayName="Tabela2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6F4E3F9D-3F45-4A1E-AE53-8E319ECF5FAF}" name="Tabela2" displayName="Tabela2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D16" xr:uid="{6F4E3F9D-3F45-4A1E-AE53-8E319ECF5FAF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D801CA54-D910-4E4A-BDC6-FA3B03D4D0B9}" name="Vendedor" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{A4CB21AD-F60D-4EA3-8242-0EB9FD4F29A3}" name="Faturado" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{BBAE7579-7F82-4A56-B2BB-76B78C389B28}" name="Bônus" dataDxfId="3" dataCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{4B10A2AF-FE30-4EDA-9D5D-54934374247A}" name="Salário" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D801CA54-D910-4E4A-BDC6-FA3B03D4D0B9}" name="Vendedor" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A4CB21AD-F60D-4EA3-8242-0EB9FD4F29A3}" name="Faturado" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BBAE7579-7F82-4A56-B2BB-76B78C389B28}" name="Bônus" dataDxfId="1" dataCellStyle="Porcentagem">
+      <calculatedColumnFormula>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{4B10A2AF-FE30-4EDA-9D5D-54934374247A}" name="Salário" dataDxfId="0">
+      <calculatedColumnFormula>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2784,7 +2789,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2890,7 +2895,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3032,7 +3037,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3042,19 +3047,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609AF048-41B8-465E-8ECB-BABA18201A44}">
   <dimension ref="A1:H401"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="1" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="4"/>
     <col min="6" max="6" width="13" style="4" customWidth="1"/>
-    <col min="7" max="8" width="13.5546875" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="4"/>
+    <col min="7" max="8" width="13.5703125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>331</v>
       </c>
@@ -3064,7 +3071,7 @@
       <c r="C1" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>739</v>
       </c>
       <c r="G1" s="16" t="s">
@@ -3072,7 +3079,7 @@
       </c>
       <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>335</v>
       </c>
@@ -3082,7 +3089,10 @@
       <c r="C2" s="13">
         <v>345000</v>
       </c>
-      <c r="D2" s="24"/>
+      <c r="D2" s="23">
+        <f>IF($G$2 = B2, C2 * $H$2, IF($G$3 = B2, C2 * $H$3, IF($G$4 = B2, C2 * $H$4, IF($G$5 = B2, C2 * $H$5, 0))))</f>
+        <v>172500</v>
+      </c>
       <c r="G2" s="14" t="s">
         <v>735</v>
       </c>
@@ -3090,7 +3100,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>336</v>
       </c>
@@ -3100,7 +3110,10 @@
       <c r="C3" s="13">
         <v>163000</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="23">
+        <f t="shared" ref="D3:D66" si="0">IF($G$2 = B3, C3 * $H$2, IF($G$3 = B3, C3 * $H$3, IF($G$4 = B3, C3 * $H$4, IF($G$5 = B3, C3 * $H$5, 0))))</f>
+        <v>81500</v>
+      </c>
       <c r="G3" s="14" t="s">
         <v>736</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>337</v>
       </c>
@@ -3118,7 +3131,10 @@
       <c r="C4" s="13">
         <v>152000</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="23">
+        <f t="shared" si="0"/>
+        <v>38000</v>
+      </c>
       <c r="G4" s="14" t="s">
         <v>737</v>
       </c>
@@ -3126,7 +3142,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>338</v>
       </c>
@@ -3136,7 +3152,10 @@
       <c r="C5" s="13">
         <v>429000</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>214500</v>
+      </c>
       <c r="G5" s="14" t="s">
         <v>738</v>
       </c>
@@ -3144,7 +3163,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>339</v>
       </c>
@@ -3154,9 +3173,12 @@
       <c r="C6" s="13">
         <v>253000</v>
       </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>12650</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>340</v>
       </c>
@@ -3166,9 +3188,12 @@
       <c r="C7" s="13">
         <v>197000</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="23">
+        <f t="shared" si="0"/>
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>341</v>
       </c>
@@ -3178,9 +3203,12 @@
       <c r="C8" s="13">
         <v>333000</v>
       </c>
-      <c r="D8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" s="23">
+        <f t="shared" si="0"/>
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>342</v>
       </c>
@@ -3190,9 +3218,12 @@
       <c r="C9" s="13">
         <v>490000</v>
       </c>
-      <c r="D9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>343</v>
       </c>
@@ -3202,9 +3233,12 @@
       <c r="C10" s="13">
         <v>428000</v>
       </c>
-      <c r="D10" s="24"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>344</v>
       </c>
@@ -3214,9 +3248,12 @@
       <c r="C11" s="13">
         <v>121000</v>
       </c>
-      <c r="D11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>6050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -3226,9 +3263,12 @@
       <c r="C12" s="13">
         <v>478000</v>
       </c>
-      <c r="D12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>239000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>346</v>
       </c>
@@ -3238,9 +3278,12 @@
       <c r="C13" s="13">
         <v>154000</v>
       </c>
-      <c r="D13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>347</v>
       </c>
@@ -3250,9 +3293,12 @@
       <c r="C14" s="13">
         <v>394000</v>
       </c>
-      <c r="D14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D14" s="23">
+        <f t="shared" si="0"/>
+        <v>98500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>348</v>
       </c>
@@ -3262,9 +3308,12 @@
       <c r="C15" s="13">
         <v>225000</v>
       </c>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D15" s="23">
+        <f t="shared" si="0"/>
+        <v>11250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>349</v>
       </c>
@@ -3274,9 +3323,12 @@
       <c r="C16" s="13">
         <v>443000</v>
       </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="23">
+        <f t="shared" si="0"/>
+        <v>110750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>350</v>
       </c>
@@ -3286,9 +3338,12 @@
       <c r="C17" s="13">
         <v>364000</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="23">
+        <f t="shared" si="0"/>
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>351</v>
       </c>
@@ -3298,9 +3353,12 @@
       <c r="C18" s="13">
         <v>125000</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="23">
+        <f t="shared" si="0"/>
+        <v>31250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>352</v>
       </c>
@@ -3310,9 +3368,12 @@
       <c r="C19" s="13">
         <v>288000</v>
       </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="23">
+        <f t="shared" si="0"/>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>353</v>
       </c>
@@ -3322,9 +3383,12 @@
       <c r="C20" s="13">
         <v>425000</v>
       </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="23">
+        <f t="shared" si="0"/>
+        <v>106250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>354</v>
       </c>
@@ -3334,9 +3398,12 @@
       <c r="C21" s="13">
         <v>482000</v>
       </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="23">
+        <f t="shared" si="0"/>
+        <v>120500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>355</v>
       </c>
@@ -3346,9 +3413,12 @@
       <c r="C22" s="13">
         <v>268000</v>
       </c>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="23">
+        <f t="shared" si="0"/>
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>356</v>
       </c>
@@ -3358,9 +3428,12 @@
       <c r="C23" s="13">
         <v>463000</v>
       </c>
-      <c r="D23" s="24"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="23">
+        <f t="shared" si="0"/>
+        <v>46300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>357</v>
       </c>
@@ -3370,9 +3443,12 @@
       <c r="C24" s="13">
         <v>234000</v>
       </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="23">
+        <f t="shared" si="0"/>
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>358</v>
       </c>
@@ -3382,9 +3458,12 @@
       <c r="C25" s="13">
         <v>199000</v>
       </c>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="23">
+        <f t="shared" si="0"/>
+        <v>49750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>359</v>
       </c>
@@ -3394,9 +3473,12 @@
       <c r="C26" s="13">
         <v>349000</v>
       </c>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="23">
+        <f t="shared" si="0"/>
+        <v>17450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>360</v>
       </c>
@@ -3406,9 +3488,12 @@
       <c r="C27" s="13">
         <v>277000</v>
       </c>
-      <c r="D27" s="24"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="23">
+        <f t="shared" si="0"/>
+        <v>69250</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>361</v>
       </c>
@@ -3418,9 +3503,12 @@
       <c r="C28" s="13">
         <v>148000</v>
       </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="23">
+        <f t="shared" si="0"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>362</v>
       </c>
@@ -3430,9 +3518,12 @@
       <c r="C29" s="13">
         <v>279000</v>
       </c>
-      <c r="D29" s="24"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="23">
+        <f t="shared" si="0"/>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>363</v>
       </c>
@@ -3442,9 +3533,12 @@
       <c r="C30" s="13">
         <v>283000</v>
       </c>
-      <c r="D30" s="24"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="23">
+        <f t="shared" si="0"/>
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>364</v>
       </c>
@@ -3454,9 +3548,12 @@
       <c r="C31" s="13">
         <v>167000</v>
       </c>
-      <c r="D31" s="24"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="23">
+        <f t="shared" si="0"/>
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>365</v>
       </c>
@@ -3466,9 +3563,12 @@
       <c r="C32" s="13">
         <v>202000</v>
       </c>
-      <c r="D32" s="24"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D32" s="23">
+        <f t="shared" si="0"/>
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>366</v>
       </c>
@@ -3478,9 +3578,12 @@
       <c r="C33" s="13">
         <v>286000</v>
       </c>
-      <c r="D33" s="24"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="23">
+        <f t="shared" si="0"/>
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>367</v>
       </c>
@@ -3490,9 +3593,12 @@
       <c r="C34" s="13">
         <v>391000</v>
       </c>
-      <c r="D34" s="24"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="23">
+        <f t="shared" si="0"/>
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>368</v>
       </c>
@@ -3502,9 +3608,12 @@
       <c r="C35" s="13">
         <v>103000</v>
       </c>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="23">
+        <f t="shared" si="0"/>
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>369</v>
       </c>
@@ -3514,9 +3623,12 @@
       <c r="C36" s="13">
         <v>495000</v>
       </c>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="23">
+        <f t="shared" si="0"/>
+        <v>24750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>370</v>
       </c>
@@ -3526,9 +3638,12 @@
       <c r="C37" s="13">
         <v>172000</v>
       </c>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="23">
+        <f t="shared" si="0"/>
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>371</v>
       </c>
@@ -3538,9 +3653,12 @@
       <c r="C38" s="13">
         <v>492000</v>
       </c>
-      <c r="D38" s="24"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D38" s="23">
+        <f t="shared" si="0"/>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>372</v>
       </c>
@@ -3550,9 +3668,12 @@
       <c r="C39" s="13">
         <v>147000</v>
       </c>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D39" s="23">
+        <f t="shared" si="0"/>
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>373</v>
       </c>
@@ -3562,9 +3683,12 @@
       <c r="C40" s="13">
         <v>142000</v>
       </c>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D40" s="23">
+        <f t="shared" si="0"/>
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>374</v>
       </c>
@@ -3574,9 +3698,12 @@
       <c r="C41" s="13">
         <v>205000</v>
       </c>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D41" s="23">
+        <f t="shared" si="0"/>
+        <v>51250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>375</v>
       </c>
@@ -3586,9 +3713,12 @@
       <c r="C42" s="13">
         <v>318000</v>
       </c>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D42" s="23">
+        <f t="shared" si="0"/>
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>376</v>
       </c>
@@ -3598,9 +3728,12 @@
       <c r="C43" s="13">
         <v>412000</v>
       </c>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D43" s="23">
+        <f t="shared" si="0"/>
+        <v>20600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>377</v>
       </c>
@@ -3610,9 +3743,12 @@
       <c r="C44" s="13">
         <v>374000</v>
       </c>
-      <c r="D44" s="24"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D44" s="23">
+        <f t="shared" si="0"/>
+        <v>187000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>378</v>
       </c>
@@ -3622,9 +3758,12 @@
       <c r="C45" s="13">
         <v>308000</v>
       </c>
-      <c r="D45" s="24"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D45" s="23">
+        <f t="shared" si="0"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>379</v>
       </c>
@@ -3634,9 +3773,12 @@
       <c r="C46" s="13">
         <v>488000</v>
       </c>
-      <c r="D46" s="24"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D46" s="23">
+        <f t="shared" si="0"/>
+        <v>122000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>380</v>
       </c>
@@ -3646,9 +3788,12 @@
       <c r="C47" s="13">
         <v>396000</v>
       </c>
-      <c r="D47" s="24"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="23">
+        <f t="shared" si="0"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>381</v>
       </c>
@@ -3658,9 +3803,12 @@
       <c r="C48" s="13">
         <v>404000</v>
       </c>
-      <c r="D48" s="24"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D48" s="23">
+        <f t="shared" si="0"/>
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>382</v>
       </c>
@@ -3670,9 +3818,12 @@
       <c r="C49" s="13">
         <v>294000</v>
       </c>
-      <c r="D49" s="24"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D49" s="23">
+        <f t="shared" si="0"/>
+        <v>14700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>383</v>
       </c>
@@ -3682,9 +3833,12 @@
       <c r="C50" s="13">
         <v>108000</v>
       </c>
-      <c r="D50" s="24"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D50" s="23">
+        <f t="shared" si="0"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>384</v>
       </c>
@@ -3694,9 +3848,12 @@
       <c r="C51" s="13">
         <v>319000</v>
       </c>
-      <c r="D51" s="24"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D51" s="23">
+        <f t="shared" si="0"/>
+        <v>79750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>385</v>
       </c>
@@ -3706,9 +3863,12 @@
       <c r="C52" s="13">
         <v>434000</v>
       </c>
-      <c r="D52" s="24"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" s="23">
+        <f t="shared" si="0"/>
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>386</v>
       </c>
@@ -3718,9 +3878,12 @@
       <c r="C53" s="13">
         <v>330000</v>
       </c>
-      <c r="D53" s="24"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D53" s="23">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>387</v>
       </c>
@@ -3730,9 +3893,12 @@
       <c r="C54" s="13">
         <v>361000</v>
       </c>
-      <c r="D54" s="24"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D54" s="23">
+        <f t="shared" si="0"/>
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>388</v>
       </c>
@@ -3742,9 +3908,12 @@
       <c r="C55" s="13">
         <v>347000</v>
       </c>
-      <c r="D55" s="24"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D55" s="23">
+        <f t="shared" si="0"/>
+        <v>173500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>389</v>
       </c>
@@ -3754,9 +3923,12 @@
       <c r="C56" s="13">
         <v>388000</v>
       </c>
-      <c r="D56" s="24"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D56" s="23">
+        <f t="shared" si="0"/>
+        <v>38800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>390</v>
       </c>
@@ -3766,9 +3938,12 @@
       <c r="C57" s="13">
         <v>459000</v>
       </c>
-      <c r="D57" s="24"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D57" s="23">
+        <f t="shared" si="0"/>
+        <v>229500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>391</v>
       </c>
@@ -3778,9 +3953,12 @@
       <c r="C58" s="13">
         <v>123000</v>
       </c>
-      <c r="D58" s="24"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D58" s="23">
+        <f t="shared" si="0"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>392</v>
       </c>
@@ -3790,9 +3968,12 @@
       <c r="C59" s="13">
         <v>351000</v>
       </c>
-      <c r="D59" s="24"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D59" s="23">
+        <f t="shared" si="0"/>
+        <v>87750</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>393</v>
       </c>
@@ -3802,9 +3983,12 @@
       <c r="C60" s="13">
         <v>305000</v>
       </c>
-      <c r="D60" s="24"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D60" s="23">
+        <f t="shared" si="0"/>
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>394</v>
       </c>
@@ -3814,9 +3998,12 @@
       <c r="C61" s="13">
         <v>195000</v>
       </c>
-      <c r="D61" s="24"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="23">
+        <f t="shared" si="0"/>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>395</v>
       </c>
@@ -3826,9 +4013,12 @@
       <c r="C62" s="13">
         <v>486000</v>
       </c>
-      <c r="D62" s="24"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D62" s="23">
+        <f t="shared" si="0"/>
+        <v>121500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>396</v>
       </c>
@@ -3838,9 +4028,12 @@
       <c r="C63" s="13">
         <v>336000</v>
       </c>
-      <c r="D63" s="24"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D63" s="23">
+        <f t="shared" si="0"/>
+        <v>33600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>397</v>
       </c>
@@ -3850,9 +4043,12 @@
       <c r="C64" s="13">
         <v>491000</v>
       </c>
-      <c r="D64" s="24"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D64" s="23">
+        <f t="shared" si="0"/>
+        <v>122750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>398</v>
       </c>
@@ -3862,9 +4058,12 @@
       <c r="C65" s="13">
         <v>380000</v>
       </c>
-      <c r="D65" s="24"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D65" s="23">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>399</v>
       </c>
@@ -3874,9 +4073,12 @@
       <c r="C66" s="13">
         <v>256000</v>
       </c>
-      <c r="D66" s="24"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D66" s="23">
+        <f t="shared" si="0"/>
+        <v>25600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>400</v>
       </c>
@@ -3886,9 +4088,12 @@
       <c r="C67" s="13">
         <v>300000</v>
       </c>
-      <c r="D67" s="24"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D67" s="23">
+        <f t="shared" ref="D67:D130" si="1">IF($G$2 = B67, C67 * $H$2, IF($G$3 = B67, C67 * $H$3, IF($G$4 = B67, C67 * $H$4, IF($G$5 = B67, C67 * $H$5, 0))))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>401</v>
       </c>
@@ -3898,9 +4103,12 @@
       <c r="C68" s="13">
         <v>375000</v>
       </c>
-      <c r="D68" s="24"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D68" s="23">
+        <f t="shared" si="1"/>
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>402</v>
       </c>
@@ -3910,9 +4118,12 @@
       <c r="C69" s="13">
         <v>430000</v>
       </c>
-      <c r="D69" s="24"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D69" s="23">
+        <f t="shared" si="1"/>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>403</v>
       </c>
@@ -3922,9 +4133,12 @@
       <c r="C70" s="13">
         <v>420000</v>
       </c>
-      <c r="D70" s="24"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D70" s="23">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>404</v>
       </c>
@@ -3934,9 +4148,12 @@
       <c r="C71" s="13">
         <v>125000</v>
       </c>
-      <c r="D71" s="24"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D71" s="23">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>405</v>
       </c>
@@ -3946,9 +4163,12 @@
       <c r="C72" s="13">
         <v>395000</v>
       </c>
-      <c r="D72" s="24"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D72" s="23">
+        <f t="shared" si="1"/>
+        <v>98750</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>406</v>
       </c>
@@ -3958,9 +4178,12 @@
       <c r="C73" s="13">
         <v>235000</v>
       </c>
-      <c r="D73" s="24"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D73" s="23">
+        <f t="shared" si="1"/>
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>407</v>
       </c>
@@ -3970,9 +4193,12 @@
       <c r="C74" s="13">
         <v>323000</v>
       </c>
-      <c r="D74" s="24"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D74" s="23">
+        <f t="shared" si="1"/>
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>408</v>
       </c>
@@ -3982,9 +4208,12 @@
       <c r="C75" s="13">
         <v>431000</v>
       </c>
-      <c r="D75" s="24"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D75" s="23">
+        <f t="shared" si="1"/>
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>409</v>
       </c>
@@ -3994,9 +4223,12 @@
       <c r="C76" s="13">
         <v>364000</v>
       </c>
-      <c r="D76" s="24"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D76" s="23">
+        <f t="shared" si="1"/>
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>410</v>
       </c>
@@ -4006,9 +4238,12 @@
       <c r="C77" s="13">
         <v>390000</v>
       </c>
-      <c r="D77" s="24"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D77" s="23">
+        <f t="shared" si="1"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>411</v>
       </c>
@@ -4018,9 +4253,12 @@
       <c r="C78" s="13">
         <v>241000</v>
       </c>
-      <c r="D78" s="24"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="23">
+        <f t="shared" si="1"/>
+        <v>120500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>412</v>
       </c>
@@ -4030,9 +4268,12 @@
       <c r="C79" s="13">
         <v>460000</v>
       </c>
-      <c r="D79" s="24"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D79" s="23">
+        <f t="shared" si="1"/>
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>413</v>
       </c>
@@ -4042,9 +4283,12 @@
       <c r="C80" s="13">
         <v>216000</v>
       </c>
-      <c r="D80" s="24"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D80" s="23">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>414</v>
       </c>
@@ -4054,9 +4298,12 @@
       <c r="C81" s="13">
         <v>231000</v>
       </c>
-      <c r="D81" s="24"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="23">
+        <f t="shared" si="1"/>
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>415</v>
       </c>
@@ -4066,9 +4313,12 @@
       <c r="C82" s="13">
         <v>107000</v>
       </c>
-      <c r="D82" s="24"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D82" s="23">
+        <f t="shared" si="1"/>
+        <v>26750</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>416</v>
       </c>
@@ -4078,9 +4328,12 @@
       <c r="C83" s="13">
         <v>297000</v>
       </c>
-      <c r="D83" s="24"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D83" s="23">
+        <f t="shared" si="1"/>
+        <v>148500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>417</v>
       </c>
@@ -4090,9 +4343,12 @@
       <c r="C84" s="13">
         <v>220000</v>
       </c>
-      <c r="D84" s="24"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D84" s="23">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>418</v>
       </c>
@@ -4102,9 +4358,12 @@
       <c r="C85" s="13">
         <v>354000</v>
       </c>
-      <c r="D85" s="24"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D85" s="23">
+        <f t="shared" si="1"/>
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>419</v>
       </c>
@@ -4114,9 +4373,12 @@
       <c r="C86" s="13">
         <v>112000</v>
       </c>
-      <c r="D86" s="24"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D86" s="23">
+        <f t="shared" si="1"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>420</v>
       </c>
@@ -4126,9 +4388,12 @@
       <c r="C87" s="13">
         <v>154000</v>
       </c>
-      <c r="D87" s="24"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D87" s="23">
+        <f t="shared" si="1"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>421</v>
       </c>
@@ -4138,9 +4403,12 @@
       <c r="C88" s="13">
         <v>363000</v>
       </c>
-      <c r="D88" s="24"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D88" s="23">
+        <f t="shared" si="1"/>
+        <v>181500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>422</v>
       </c>
@@ -4150,9 +4418,12 @@
       <c r="C89" s="13">
         <v>385000</v>
       </c>
-      <c r="D89" s="24"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D89" s="23">
+        <f t="shared" si="1"/>
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>423</v>
       </c>
@@ -4162,9 +4433,12 @@
       <c r="C90" s="13">
         <v>346000</v>
       </c>
-      <c r="D90" s="24"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D90" s="23">
+        <f t="shared" si="1"/>
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>424</v>
       </c>
@@ -4174,9 +4448,12 @@
       <c r="C91" s="13">
         <v>199000</v>
       </c>
-      <c r="D91" s="24"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D91" s="23">
+        <f t="shared" si="1"/>
+        <v>49750</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>425</v>
       </c>
@@ -4186,9 +4463,12 @@
       <c r="C92" s="13">
         <v>392000</v>
       </c>
-      <c r="D92" s="24"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D92" s="23">
+        <f t="shared" si="1"/>
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>426</v>
       </c>
@@ -4198,9 +4478,12 @@
       <c r="C93" s="13">
         <v>240000</v>
       </c>
-      <c r="D93" s="24"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D93" s="23">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>427</v>
       </c>
@@ -4210,9 +4493,12 @@
       <c r="C94" s="13">
         <v>154000</v>
       </c>
-      <c r="D94" s="24"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D94" s="23">
+        <f t="shared" si="1"/>
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>428</v>
       </c>
@@ -4222,9 +4508,12 @@
       <c r="C95" s="13">
         <v>324000</v>
       </c>
-      <c r="D95" s="24"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D95" s="23">
+        <f t="shared" si="1"/>
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>429</v>
       </c>
@@ -4234,9 +4523,12 @@
       <c r="C96" s="13">
         <v>110000</v>
       </c>
-      <c r="D96" s="24"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D96" s="23">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>430</v>
       </c>
@@ -4246,9 +4538,12 @@
       <c r="C97" s="13">
         <v>115000</v>
       </c>
-      <c r="D97" s="24"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D97" s="23">
+        <f t="shared" si="1"/>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>431</v>
       </c>
@@ -4258,9 +4553,12 @@
       <c r="C98" s="13">
         <v>389000</v>
       </c>
-      <c r="D98" s="24"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D98" s="23">
+        <f t="shared" si="1"/>
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>432</v>
       </c>
@@ -4270,9 +4568,12 @@
       <c r="C99" s="13">
         <v>306000</v>
       </c>
-      <c r="D99" s="24"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="23">
+        <f t="shared" si="1"/>
+        <v>76500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>433</v>
       </c>
@@ -4282,9 +4583,12 @@
       <c r="C100" s="13">
         <v>176000</v>
       </c>
-      <c r="D100" s="24"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D100" s="23">
+        <f t="shared" si="1"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>434</v>
       </c>
@@ -4294,9 +4598,12 @@
       <c r="C101" s="13">
         <v>493000</v>
       </c>
-      <c r="D101" s="24"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D101" s="23">
+        <f t="shared" si="1"/>
+        <v>246500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>435</v>
       </c>
@@ -4306,9 +4613,12 @@
       <c r="C102" s="13">
         <v>133000</v>
       </c>
-      <c r="D102" s="24"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D102" s="23">
+        <f t="shared" si="1"/>
+        <v>33250</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>436</v>
       </c>
@@ -4318,9 +4628,12 @@
       <c r="C103" s="13">
         <v>372000</v>
       </c>
-      <c r="D103" s="24"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D103" s="23">
+        <f t="shared" si="1"/>
+        <v>18600</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>437</v>
       </c>
@@ -4330,9 +4643,12 @@
       <c r="C104" s="13">
         <v>217000</v>
       </c>
-      <c r="D104" s="24"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D104" s="23">
+        <f t="shared" si="1"/>
+        <v>54250</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>438</v>
       </c>
@@ -4342,9 +4658,12 @@
       <c r="C105" s="13">
         <v>142000</v>
       </c>
-      <c r="D105" s="24"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D105" s="23">
+        <f t="shared" si="1"/>
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>439</v>
       </c>
@@ -4354,9 +4673,12 @@
       <c r="C106" s="13">
         <v>275000</v>
       </c>
-      <c r="D106" s="24"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D106" s="23">
+        <f t="shared" si="1"/>
+        <v>68750</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>440</v>
       </c>
@@ -4366,9 +4688,12 @@
       <c r="C107" s="13">
         <v>481000</v>
       </c>
-      <c r="D107" s="24"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D107" s="23">
+        <f t="shared" si="1"/>
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>441</v>
       </c>
@@ -4378,9 +4703,12 @@
       <c r="C108" s="13">
         <v>161000</v>
       </c>
-      <c r="D108" s="24"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D108" s="23">
+        <f t="shared" si="1"/>
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>442</v>
       </c>
@@ -4390,9 +4718,12 @@
       <c r="C109" s="13">
         <v>226000</v>
       </c>
-      <c r="D109" s="24"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D109" s="23">
+        <f t="shared" si="1"/>
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>443</v>
       </c>
@@ -4402,9 +4733,12 @@
       <c r="C110" s="13">
         <v>123000</v>
       </c>
-      <c r="D110" s="24"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D110" s="23">
+        <f t="shared" si="1"/>
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>444</v>
       </c>
@@ -4414,9 +4748,12 @@
       <c r="C111" s="13">
         <v>414000</v>
       </c>
-      <c r="D111" s="24"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D111" s="23">
+        <f t="shared" si="1"/>
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>445</v>
       </c>
@@ -4426,9 +4763,12 @@
       <c r="C112" s="13">
         <v>346000</v>
       </c>
-      <c r="D112" s="24"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D112" s="23">
+        <f t="shared" si="1"/>
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>446</v>
       </c>
@@ -4438,9 +4778,12 @@
       <c r="C113" s="13">
         <v>419000</v>
       </c>
-      <c r="D113" s="24"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D113" s="23">
+        <f t="shared" si="1"/>
+        <v>20950</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>447</v>
       </c>
@@ -4450,9 +4793,12 @@
       <c r="C114" s="13">
         <v>309000</v>
       </c>
-      <c r="D114" s="24"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="23">
+        <f t="shared" si="1"/>
+        <v>77250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>448</v>
       </c>
@@ -4462,9 +4808,12 @@
       <c r="C115" s="13">
         <v>369000</v>
       </c>
-      <c r="D115" s="24"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="23">
+        <f t="shared" si="1"/>
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>449</v>
       </c>
@@ -4474,9 +4823,12 @@
       <c r="C116" s="13">
         <v>280000</v>
       </c>
-      <c r="D116" s="24"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D116" s="23">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>450</v>
       </c>
@@ -4486,9 +4838,12 @@
       <c r="C117" s="13">
         <v>253000</v>
       </c>
-      <c r="D117" s="24"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="23">
+        <f t="shared" si="1"/>
+        <v>63250</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>451</v>
       </c>
@@ -4498,9 +4853,12 @@
       <c r="C118" s="13">
         <v>255000</v>
       </c>
-      <c r="D118" s="24"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="23">
+        <f t="shared" si="1"/>
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>452</v>
       </c>
@@ -4510,9 +4868,12 @@
       <c r="C119" s="13">
         <v>477000</v>
       </c>
-      <c r="D119" s="24"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D119" s="23">
+        <f t="shared" si="1"/>
+        <v>238500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>453</v>
       </c>
@@ -4522,9 +4883,12 @@
       <c r="C120" s="13">
         <v>276000</v>
       </c>
-      <c r="D120" s="24"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="23">
+        <f t="shared" si="1"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>454</v>
       </c>
@@ -4534,9 +4898,12 @@
       <c r="C121" s="13">
         <v>135000</v>
       </c>
-      <c r="D121" s="24"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="23">
+        <f t="shared" si="1"/>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>455</v>
       </c>
@@ -4546,9 +4913,12 @@
       <c r="C122" s="13">
         <v>295000</v>
       </c>
-      <c r="D122" s="24"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="23">
+        <f t="shared" si="1"/>
+        <v>73750</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>456</v>
       </c>
@@ -4558,9 +4928,12 @@
       <c r="C123" s="13">
         <v>332000</v>
       </c>
-      <c r="D123" s="24"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="23">
+        <f t="shared" si="1"/>
+        <v>166000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>457</v>
       </c>
@@ -4570,9 +4943,12 @@
       <c r="C124" s="13">
         <v>310000</v>
       </c>
-      <c r="D124" s="24"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="23">
+        <f t="shared" si="1"/>
+        <v>77500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>458</v>
       </c>
@@ -4582,9 +4958,12 @@
       <c r="C125" s="13">
         <v>197000</v>
       </c>
-      <c r="D125" s="24"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="23">
+        <f t="shared" si="1"/>
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>459</v>
       </c>
@@ -4594,9 +4973,12 @@
       <c r="C126" s="13">
         <v>258000</v>
       </c>
-      <c r="D126" s="24"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D126" s="23">
+        <f t="shared" si="1"/>
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>460</v>
       </c>
@@ -4606,9 +4988,12 @@
       <c r="C127" s="13">
         <v>365000</v>
       </c>
-      <c r="D127" s="24"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="23">
+        <f t="shared" si="1"/>
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>461</v>
       </c>
@@ -4618,9 +5003,12 @@
       <c r="C128" s="13">
         <v>483000</v>
       </c>
-      <c r="D128" s="24"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="23">
+        <f t="shared" si="1"/>
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>462</v>
       </c>
@@ -4630,9 +5018,12 @@
       <c r="C129" s="13">
         <v>373000</v>
       </c>
-      <c r="D129" s="24"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="23">
+        <f t="shared" si="1"/>
+        <v>18650</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>463</v>
       </c>
@@ -4642,9 +5033,12 @@
       <c r="C130" s="13">
         <v>216000</v>
       </c>
-      <c r="D130" s="24"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="23">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>464</v>
       </c>
@@ -4654,9 +5048,12 @@
       <c r="C131" s="13">
         <v>141000</v>
       </c>
-      <c r="D131" s="24"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D131" s="23">
+        <f t="shared" ref="D131:D194" si="2">IF($G$2 = B131, C131 * $H$2, IF($G$3 = B131, C131 * $H$3, IF($G$4 = B131, C131 * $H$4, IF($G$5 = B131, C131 * $H$5, 0))))</f>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>465</v>
       </c>
@@ -4666,9 +5063,12 @@
       <c r="C132" s="13">
         <v>349000</v>
       </c>
-      <c r="D132" s="24"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D132" s="23">
+        <f t="shared" si="2"/>
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>466</v>
       </c>
@@ -4678,9 +5078,12 @@
       <c r="C133" s="13">
         <v>302000</v>
       </c>
-      <c r="D133" s="24"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="23">
+        <f t="shared" si="2"/>
+        <v>151000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>467</v>
       </c>
@@ -4690,9 +5093,12 @@
       <c r="C134" s="13">
         <v>168000</v>
       </c>
-      <c r="D134" s="24"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="23">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>468</v>
       </c>
@@ -4702,9 +5108,12 @@
       <c r="C135" s="13">
         <v>219000</v>
       </c>
-      <c r="D135" s="24"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="23">
+        <f t="shared" si="2"/>
+        <v>10950</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>469</v>
       </c>
@@ -4714,9 +5123,12 @@
       <c r="C136" s="13">
         <v>128000</v>
       </c>
-      <c r="D136" s="24"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="23">
+        <f t="shared" si="2"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>470</v>
       </c>
@@ -4726,9 +5138,12 @@
       <c r="C137" s="13">
         <v>155000</v>
       </c>
-      <c r="D137" s="24"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="23">
+        <f t="shared" si="2"/>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>471</v>
       </c>
@@ -4738,9 +5153,12 @@
       <c r="C138" s="13">
         <v>279000</v>
       </c>
-      <c r="D138" s="24"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="23">
+        <f t="shared" si="2"/>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>472</v>
       </c>
@@ -4750,9 +5168,12 @@
       <c r="C139" s="13">
         <v>411000</v>
       </c>
-      <c r="D139" s="24"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="23">
+        <f t="shared" si="2"/>
+        <v>102750</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>473</v>
       </c>
@@ -4762,9 +5183,12 @@
       <c r="C140" s="13">
         <v>225000</v>
       </c>
-      <c r="D140" s="24"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="23">
+        <f t="shared" si="2"/>
+        <v>112500</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>474</v>
       </c>
@@ -4774,9 +5198,12 @@
       <c r="C141" s="13">
         <v>264000</v>
       </c>
-      <c r="D141" s="24"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="23">
+        <f t="shared" si="2"/>
+        <v>132000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>475</v>
       </c>
@@ -4786,9 +5213,12 @@
       <c r="C142" s="13">
         <v>418000</v>
       </c>
-      <c r="D142" s="24"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="23">
+        <f t="shared" si="2"/>
+        <v>20900</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>476</v>
       </c>
@@ -4798,9 +5228,12 @@
       <c r="C143" s="13">
         <v>145000</v>
       </c>
-      <c r="D143" s="24"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="23">
+        <f t="shared" si="2"/>
+        <v>36250</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>477</v>
       </c>
@@ -4810,9 +5243,12 @@
       <c r="C144" s="13">
         <v>110000</v>
       </c>
-      <c r="D144" s="24"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="23">
+        <f t="shared" si="2"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>478</v>
       </c>
@@ -4822,9 +5258,12 @@
       <c r="C145" s="13">
         <v>175000</v>
       </c>
-      <c r="D145" s="24"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="23">
+        <f t="shared" si="2"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>479</v>
       </c>
@@ -4834,9 +5273,12 @@
       <c r="C146" s="13">
         <v>262000</v>
       </c>
-      <c r="D146" s="24"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="23">
+        <f t="shared" si="2"/>
+        <v>26200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>480</v>
       </c>
@@ -4846,9 +5288,12 @@
       <c r="C147" s="13">
         <v>361000</v>
       </c>
-      <c r="D147" s="24"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="23">
+        <f t="shared" si="2"/>
+        <v>180500</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>481</v>
       </c>
@@ -4858,9 +5303,12 @@
       <c r="C148" s="13">
         <v>488000</v>
       </c>
-      <c r="D148" s="24"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D148" s="23">
+        <f t="shared" si="2"/>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>482</v>
       </c>
@@ -4870,9 +5318,12 @@
       <c r="C149" s="13">
         <v>334000</v>
       </c>
-      <c r="D149" s="24"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D149" s="23">
+        <f t="shared" si="2"/>
+        <v>83500</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>483</v>
       </c>
@@ -4882,9 +5333,12 @@
       <c r="C150" s="13">
         <v>270000</v>
       </c>
-      <c r="D150" s="24"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D150" s="23">
+        <f t="shared" si="2"/>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>484</v>
       </c>
@@ -4894,9 +5348,12 @@
       <c r="C151" s="13">
         <v>128000</v>
       </c>
-      <c r="D151" s="24"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D151" s="23">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>485</v>
       </c>
@@ -4906,9 +5363,12 @@
       <c r="C152" s="13">
         <v>321000</v>
       </c>
-      <c r="D152" s="24"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D152" s="23">
+        <f t="shared" si="2"/>
+        <v>80250</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>486</v>
       </c>
@@ -4918,9 +5378,12 @@
       <c r="C153" s="13">
         <v>105000</v>
       </c>
-      <c r="D153" s="24"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D153" s="23">
+        <f t="shared" si="2"/>
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>487</v>
       </c>
@@ -4930,9 +5393,12 @@
       <c r="C154" s="13">
         <v>385000</v>
       </c>
-      <c r="D154" s="24"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D154" s="23">
+        <f t="shared" si="2"/>
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>488</v>
       </c>
@@ -4942,9 +5408,12 @@
       <c r="C155" s="13">
         <v>232000</v>
       </c>
-      <c r="D155" s="24"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D155" s="23">
+        <f t="shared" si="2"/>
+        <v>23200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>489</v>
       </c>
@@ -4954,9 +5423,12 @@
       <c r="C156" s="13">
         <v>376000</v>
       </c>
-      <c r="D156" s="24"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D156" s="23">
+        <f t="shared" si="2"/>
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>490</v>
       </c>
@@ -4966,9 +5438,12 @@
       <c r="C157" s="13">
         <v>139000</v>
       </c>
-      <c r="D157" s="24"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D157" s="23">
+        <f t="shared" si="2"/>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>491</v>
       </c>
@@ -4978,9 +5453,12 @@
       <c r="C158" s="13">
         <v>300000</v>
       </c>
-      <c r="D158" s="24"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D158" s="23">
+        <f t="shared" si="2"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>492</v>
       </c>
@@ -4990,9 +5468,12 @@
       <c r="C159" s="13">
         <v>383000</v>
       </c>
-      <c r="D159" s="24"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D159" s="23">
+        <f t="shared" si="2"/>
+        <v>191500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>493</v>
       </c>
@@ -5002,9 +5483,12 @@
       <c r="C160" s="13">
         <v>306000</v>
       </c>
-      <c r="D160" s="24"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D160" s="23">
+        <f t="shared" si="2"/>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>494</v>
       </c>
@@ -5014,9 +5498,12 @@
       <c r="C161" s="13">
         <v>407000</v>
       </c>
-      <c r="D161" s="24"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D161" s="23">
+        <f t="shared" si="2"/>
+        <v>203500</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>495</v>
       </c>
@@ -5026,9 +5513,12 @@
       <c r="C162" s="13">
         <v>476000</v>
       </c>
-      <c r="D162" s="24"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D162" s="23">
+        <f t="shared" si="2"/>
+        <v>23800</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>496</v>
       </c>
@@ -5038,9 +5528,12 @@
       <c r="C163" s="13">
         <v>441000</v>
       </c>
-      <c r="D163" s="24"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D163" s="23">
+        <f t="shared" si="2"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>497</v>
       </c>
@@ -5050,9 +5543,12 @@
       <c r="C164" s="13">
         <v>296000</v>
       </c>
-      <c r="D164" s="24"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D164" s="23">
+        <f t="shared" si="2"/>
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>498</v>
       </c>
@@ -5062,9 +5558,12 @@
       <c r="C165" s="13">
         <v>331000</v>
       </c>
-      <c r="D165" s="24"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D165" s="23">
+        <f t="shared" si="2"/>
+        <v>16550</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>499</v>
       </c>
@@ -5074,9 +5573,12 @@
       <c r="C166" s="13">
         <v>343000</v>
       </c>
-      <c r="D166" s="24"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D166" s="23">
+        <f t="shared" si="2"/>
+        <v>171500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>500</v>
       </c>
@@ -5086,9 +5588,12 @@
       <c r="C167" s="13">
         <v>267000</v>
       </c>
-      <c r="D167" s="24"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D167" s="23">
+        <f t="shared" si="2"/>
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>501</v>
       </c>
@@ -5098,9 +5603,12 @@
       <c r="C168" s="13">
         <v>191000</v>
       </c>
-      <c r="D168" s="24"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D168" s="23">
+        <f t="shared" si="2"/>
+        <v>47750</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>502</v>
       </c>
@@ -5110,9 +5618,12 @@
       <c r="C169" s="13">
         <v>249000</v>
       </c>
-      <c r="D169" s="24"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D169" s="23">
+        <f t="shared" si="2"/>
+        <v>62250</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>503</v>
       </c>
@@ -5122,9 +5633,12 @@
       <c r="C170" s="13">
         <v>277000</v>
       </c>
-      <c r="D170" s="24"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D170" s="23">
+        <f t="shared" si="2"/>
+        <v>138500</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>504</v>
       </c>
@@ -5134,9 +5648,12 @@
       <c r="C171" s="13">
         <v>253000</v>
       </c>
-      <c r="D171" s="24"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D171" s="23">
+        <f t="shared" si="2"/>
+        <v>25300</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>505</v>
       </c>
@@ -5146,9 +5663,12 @@
       <c r="C172" s="13">
         <v>377000</v>
       </c>
-      <c r="D172" s="24"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D172" s="23">
+        <f t="shared" si="2"/>
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>506</v>
       </c>
@@ -5158,9 +5678,12 @@
       <c r="C173" s="13">
         <v>312000</v>
       </c>
-      <c r="D173" s="24"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D173" s="23">
+        <f t="shared" si="2"/>
+        <v>15600</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>507</v>
       </c>
@@ -5170,9 +5693,12 @@
       <c r="C174" s="13">
         <v>214000</v>
       </c>
-      <c r="D174" s="24"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="23">
+        <f t="shared" si="2"/>
+        <v>107000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>508</v>
       </c>
@@ -5182,9 +5708,12 @@
       <c r="C175" s="13">
         <v>405000</v>
       </c>
-      <c r="D175" s="24"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D175" s="23">
+        <f t="shared" si="2"/>
+        <v>20250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>509</v>
       </c>
@@ -5194,9 +5723,12 @@
       <c r="C176" s="13">
         <v>125000</v>
       </c>
-      <c r="D176" s="24"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D176" s="23">
+        <f t="shared" si="2"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>510</v>
       </c>
@@ -5206,9 +5738,12 @@
       <c r="C177" s="13">
         <v>443000</v>
       </c>
-      <c r="D177" s="24"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D177" s="23">
+        <f t="shared" si="2"/>
+        <v>221500</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>511</v>
       </c>
@@ -5218,9 +5753,12 @@
       <c r="C178" s="13">
         <v>343000</v>
       </c>
-      <c r="D178" s="24"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D178" s="23">
+        <f t="shared" si="2"/>
+        <v>17150</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>512</v>
       </c>
@@ -5230,9 +5768,12 @@
       <c r="C179" s="13">
         <v>395000</v>
       </c>
-      <c r="D179" s="24"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D179" s="23">
+        <f t="shared" si="2"/>
+        <v>19750</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>513</v>
       </c>
@@ -5242,9 +5783,12 @@
       <c r="C180" s="13">
         <v>299000</v>
       </c>
-      <c r="D180" s="24"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D180" s="23">
+        <f t="shared" si="2"/>
+        <v>149500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>514</v>
       </c>
@@ -5254,9 +5798,12 @@
       <c r="C181" s="13">
         <v>223000</v>
       </c>
-      <c r="D181" s="24"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D181" s="23">
+        <f t="shared" si="2"/>
+        <v>22300</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>515</v>
       </c>
@@ -5266,9 +5813,12 @@
       <c r="C182" s="13">
         <v>105000</v>
       </c>
-      <c r="D182" s="24"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D182" s="23">
+        <f t="shared" si="2"/>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>516</v>
       </c>
@@ -5278,9 +5828,12 @@
       <c r="C183" s="13">
         <v>402000</v>
       </c>
-      <c r="D183" s="24"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D183" s="23">
+        <f t="shared" si="2"/>
+        <v>201000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>517</v>
       </c>
@@ -5290,9 +5843,12 @@
       <c r="C184" s="13">
         <v>295000</v>
       </c>
-      <c r="D184" s="24"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D184" s="23">
+        <f t="shared" si="2"/>
+        <v>147500</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>518</v>
       </c>
@@ -5302,9 +5858,12 @@
       <c r="C185" s="13">
         <v>179000</v>
       </c>
-      <c r="D185" s="24"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D185" s="23">
+        <f t="shared" si="2"/>
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>519</v>
       </c>
@@ -5314,9 +5873,12 @@
       <c r="C186" s="13">
         <v>317000</v>
       </c>
-      <c r="D186" s="24"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D186" s="23">
+        <f t="shared" si="2"/>
+        <v>15850</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>520</v>
       </c>
@@ -5326,9 +5888,12 @@
       <c r="C187" s="13">
         <v>389000</v>
       </c>
-      <c r="D187" s="24"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D187" s="23">
+        <f t="shared" si="2"/>
+        <v>194500</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>521</v>
       </c>
@@ -5338,9 +5903,12 @@
       <c r="C188" s="13">
         <v>451000</v>
       </c>
-      <c r="D188" s="24"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D188" s="23">
+        <f t="shared" si="2"/>
+        <v>225500</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>522</v>
       </c>
@@ -5350,9 +5918,12 @@
       <c r="C189" s="13">
         <v>296000</v>
       </c>
-      <c r="D189" s="24"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D189" s="23">
+        <f t="shared" si="2"/>
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>523</v>
       </c>
@@ -5362,9 +5933,12 @@
       <c r="C190" s="13">
         <v>325000</v>
       </c>
-      <c r="D190" s="24"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D190" s="23">
+        <f t="shared" si="2"/>
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>524</v>
       </c>
@@ -5374,9 +5948,12 @@
       <c r="C191" s="13">
         <v>420000</v>
       </c>
-      <c r="D191" s="24"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D191" s="23">
+        <f t="shared" si="2"/>
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>525</v>
       </c>
@@ -5386,9 +5963,12 @@
       <c r="C192" s="13">
         <v>297000</v>
       </c>
-      <c r="D192" s="24"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D192" s="23">
+        <f t="shared" si="2"/>
+        <v>74250</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>526</v>
       </c>
@@ -5398,9 +5978,12 @@
       <c r="C193" s="13">
         <v>117000</v>
       </c>
-      <c r="D193" s="24"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D193" s="23">
+        <f t="shared" si="2"/>
+        <v>11700</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>527</v>
       </c>
@@ -5410,9 +5993,12 @@
       <c r="C194" s="13">
         <v>305000</v>
       </c>
-      <c r="D194" s="24"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D194" s="23">
+        <f t="shared" si="2"/>
+        <v>152500</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>528</v>
       </c>
@@ -5422,9 +6008,12 @@
       <c r="C195" s="13">
         <v>450000</v>
       </c>
-      <c r="D195" s="24"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D195" s="23">
+        <f t="shared" ref="D195:D258" si="3">IF($G$2 = B195, C195 * $H$2, IF($G$3 = B195, C195 * $H$3, IF($G$4 = B195, C195 * $H$4, IF($G$5 = B195, C195 * $H$5, 0))))</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>529</v>
       </c>
@@ -5434,9 +6023,12 @@
       <c r="C196" s="13">
         <v>450000</v>
       </c>
-      <c r="D196" s="24"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D196" s="23">
+        <f t="shared" si="3"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>530</v>
       </c>
@@ -5446,9 +6038,12 @@
       <c r="C197" s="13">
         <v>336000</v>
       </c>
-      <c r="D197" s="24"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D197" s="23">
+        <f t="shared" si="3"/>
+        <v>16800</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>531</v>
       </c>
@@ -5458,9 +6053,12 @@
       <c r="C198" s="13">
         <v>251000</v>
       </c>
-      <c r="D198" s="24"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D198" s="23">
+        <f t="shared" si="3"/>
+        <v>25100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>532</v>
       </c>
@@ -5470,9 +6068,12 @@
       <c r="C199" s="13">
         <v>315000</v>
       </c>
-      <c r="D199" s="24"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D199" s="23">
+        <f t="shared" si="3"/>
+        <v>78750</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>533</v>
       </c>
@@ -5482,9 +6083,12 @@
       <c r="C200" s="13">
         <v>500000</v>
       </c>
-      <c r="D200" s="24"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D200" s="23">
+        <f t="shared" si="3"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>534</v>
       </c>
@@ -5494,9 +6098,12 @@
       <c r="C201" s="13">
         <v>413000</v>
       </c>
-      <c r="D201" s="24"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D201" s="23">
+        <f t="shared" si="3"/>
+        <v>206500</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>535</v>
       </c>
@@ -5506,9 +6113,12 @@
       <c r="C202" s="13">
         <v>345000</v>
       </c>
-      <c r="D202" s="24"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D202" s="23">
+        <f t="shared" si="3"/>
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>536</v>
       </c>
@@ -5518,9 +6128,12 @@
       <c r="C203" s="13">
         <v>218000</v>
       </c>
-      <c r="D203" s="24"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D203" s="23">
+        <f t="shared" si="3"/>
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>537</v>
       </c>
@@ -5530,9 +6143,12 @@
       <c r="C204" s="13">
         <v>333000</v>
       </c>
-      <c r="D204" s="24"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D204" s="23">
+        <f t="shared" si="3"/>
+        <v>166500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>538</v>
       </c>
@@ -5542,9 +6158,12 @@
       <c r="C205" s="13">
         <v>119000</v>
       </c>
-      <c r="D205" s="24"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D205" s="23">
+        <f t="shared" si="3"/>
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>539</v>
       </c>
@@ -5554,9 +6173,12 @@
       <c r="C206" s="13">
         <v>242000</v>
       </c>
-      <c r="D206" s="24"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D206" s="23">
+        <f t="shared" si="3"/>
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>540</v>
       </c>
@@ -5566,9 +6188,12 @@
       <c r="C207" s="13">
         <v>272000</v>
       </c>
-      <c r="D207" s="24"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D207" s="23">
+        <f t="shared" si="3"/>
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>541</v>
       </c>
@@ -5578,9 +6203,12 @@
       <c r="C208" s="13">
         <v>220000</v>
       </c>
-      <c r="D208" s="24"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D208" s="23">
+        <f t="shared" si="3"/>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>542</v>
       </c>
@@ -5590,9 +6218,12 @@
       <c r="C209" s="13">
         <v>235000</v>
       </c>
-      <c r="D209" s="24"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D209" s="23">
+        <f t="shared" si="3"/>
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>543</v>
       </c>
@@ -5602,9 +6233,12 @@
       <c r="C210" s="13">
         <v>156000</v>
       </c>
-      <c r="D210" s="24"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D210" s="23">
+        <f t="shared" si="3"/>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>544</v>
       </c>
@@ -5614,9 +6248,12 @@
       <c r="C211" s="13">
         <v>207000</v>
       </c>
-      <c r="D211" s="24"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D211" s="23">
+        <f t="shared" si="3"/>
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>545</v>
       </c>
@@ -5626,9 +6263,12 @@
       <c r="C212" s="13">
         <v>441000</v>
       </c>
-      <c r="D212" s="24"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D212" s="23">
+        <f t="shared" si="3"/>
+        <v>22050</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>546</v>
       </c>
@@ -5638,9 +6278,12 @@
       <c r="C213" s="13">
         <v>399000</v>
       </c>
-      <c r="D213" s="24"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D213" s="23">
+        <f t="shared" si="3"/>
+        <v>19950</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>547</v>
       </c>
@@ -5650,9 +6293,12 @@
       <c r="C214" s="13">
         <v>231000</v>
       </c>
-      <c r="D214" s="24"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D214" s="23">
+        <f t="shared" si="3"/>
+        <v>23100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>548</v>
       </c>
@@ -5662,9 +6308,12 @@
       <c r="C215" s="13">
         <v>357000</v>
       </c>
-      <c r="D215" s="24"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D215" s="23">
+        <f t="shared" si="3"/>
+        <v>17850</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>549</v>
       </c>
@@ -5674,9 +6323,12 @@
       <c r="C216" s="13">
         <v>272000</v>
       </c>
-      <c r="D216" s="24"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D216" s="23">
+        <f t="shared" si="3"/>
+        <v>27200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>550</v>
       </c>
@@ -5686,9 +6338,12 @@
       <c r="C217" s="13">
         <v>284000</v>
       </c>
-      <c r="D217" s="24"/>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D217" s="23">
+        <f t="shared" si="3"/>
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>551</v>
       </c>
@@ -5698,9 +6353,12 @@
       <c r="C218" s="13">
         <v>329000</v>
       </c>
-      <c r="D218" s="24"/>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D218" s="23">
+        <f t="shared" si="3"/>
+        <v>32900</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>552</v>
       </c>
@@ -5710,9 +6368,12 @@
       <c r="C219" s="13">
         <v>225000</v>
       </c>
-      <c r="D219" s="24"/>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D219" s="23">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>553</v>
       </c>
@@ -5722,9 +6383,12 @@
       <c r="C220" s="13">
         <v>374000</v>
       </c>
-      <c r="D220" s="24"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D220" s="23">
+        <f t="shared" si="3"/>
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>554</v>
       </c>
@@ -5734,9 +6398,12 @@
       <c r="C221" s="13">
         <v>252000</v>
       </c>
-      <c r="D221" s="24"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D221" s="23">
+        <f t="shared" si="3"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>555</v>
       </c>
@@ -5746,9 +6413,12 @@
       <c r="C222" s="13">
         <v>252000</v>
       </c>
-      <c r="D222" s="24"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D222" s="23">
+        <f t="shared" si="3"/>
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>556</v>
       </c>
@@ -5758,9 +6428,12 @@
       <c r="C223" s="13">
         <v>449000</v>
       </c>
-      <c r="D223" s="24"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D223" s="23">
+        <f t="shared" si="3"/>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>557</v>
       </c>
@@ -5770,9 +6443,12 @@
       <c r="C224" s="13">
         <v>399000</v>
       </c>
-      <c r="D224" s="24"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D224" s="23">
+        <f t="shared" si="3"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>558</v>
       </c>
@@ -5782,9 +6458,12 @@
       <c r="C225" s="13">
         <v>253000</v>
       </c>
-      <c r="D225" s="24"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D225" s="23">
+        <f t="shared" si="3"/>
+        <v>63250</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>559</v>
       </c>
@@ -5794,9 +6473,12 @@
       <c r="C226" s="13">
         <v>313000</v>
       </c>
-      <c r="D226" s="24"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D226" s="23">
+        <f t="shared" si="3"/>
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>560</v>
       </c>
@@ -5806,9 +6488,12 @@
       <c r="C227" s="13">
         <v>313000</v>
       </c>
-      <c r="D227" s="24"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D227" s="23">
+        <f t="shared" si="3"/>
+        <v>15650</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>561</v>
       </c>
@@ -5818,9 +6503,12 @@
       <c r="C228" s="13">
         <v>366000</v>
       </c>
-      <c r="D228" s="24"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D228" s="23">
+        <f t="shared" si="3"/>
+        <v>91500</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>562</v>
       </c>
@@ -5830,9 +6518,12 @@
       <c r="C229" s="13">
         <v>362000</v>
       </c>
-      <c r="D229" s="24"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D229" s="23">
+        <f t="shared" si="3"/>
+        <v>90500</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>563</v>
       </c>
@@ -5842,9 +6533,12 @@
       <c r="C230" s="13">
         <v>422000</v>
       </c>
-      <c r="D230" s="24"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D230" s="23">
+        <f t="shared" si="3"/>
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>564</v>
       </c>
@@ -5854,9 +6548,12 @@
       <c r="C231" s="13">
         <v>398000</v>
       </c>
-      <c r="D231" s="24"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D231" s="23">
+        <f t="shared" si="3"/>
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>565</v>
       </c>
@@ -5866,9 +6563,12 @@
       <c r="C232" s="13">
         <v>484000</v>
       </c>
-      <c r="D232" s="24"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D232" s="23">
+        <f t="shared" si="3"/>
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>566</v>
       </c>
@@ -5878,9 +6578,12 @@
       <c r="C233" s="13">
         <v>435000</v>
       </c>
-      <c r="D233" s="24"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D233" s="23">
+        <f t="shared" si="3"/>
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>567</v>
       </c>
@@ -5890,9 +6593,12 @@
       <c r="C234" s="13">
         <v>208000</v>
       </c>
-      <c r="D234" s="24"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D234" s="23">
+        <f t="shared" si="3"/>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>568</v>
       </c>
@@ -5902,9 +6608,12 @@
       <c r="C235" s="13">
         <v>364000</v>
       </c>
-      <c r="D235" s="24"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D235" s="23">
+        <f t="shared" si="3"/>
+        <v>182000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>569</v>
       </c>
@@ -5914,9 +6623,12 @@
       <c r="C236" s="13">
         <v>255000</v>
       </c>
-      <c r="D236" s="24"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D236" s="23">
+        <f t="shared" si="3"/>
+        <v>25500</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>570</v>
       </c>
@@ -5926,9 +6638,12 @@
       <c r="C237" s="13">
         <v>117000</v>
       </c>
-      <c r="D237" s="24"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D237" s="23">
+        <f t="shared" si="3"/>
+        <v>29250</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>571</v>
       </c>
@@ -5938,9 +6653,12 @@
       <c r="C238" s="13">
         <v>418000</v>
       </c>
-      <c r="D238" s="24"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D238" s="23">
+        <f t="shared" si="3"/>
+        <v>209000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>572</v>
       </c>
@@ -5950,9 +6668,12 @@
       <c r="C239" s="13">
         <v>287000</v>
       </c>
-      <c r="D239" s="24"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D239" s="23">
+        <f t="shared" si="3"/>
+        <v>14350</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>573</v>
       </c>
@@ -5962,9 +6683,12 @@
       <c r="C240" s="13">
         <v>379000</v>
       </c>
-      <c r="D240" s="24"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D240" s="23">
+        <f t="shared" si="3"/>
+        <v>189500</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>574</v>
       </c>
@@ -5974,9 +6698,12 @@
       <c r="C241" s="13">
         <v>208000</v>
       </c>
-      <c r="D241" s="24"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D241" s="23">
+        <f t="shared" si="3"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>575</v>
       </c>
@@ -5986,9 +6713,12 @@
       <c r="C242" s="13">
         <v>182000</v>
       </c>
-      <c r="D242" s="24"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D242" s="23">
+        <f t="shared" si="3"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>576</v>
       </c>
@@ -5998,9 +6728,12 @@
       <c r="C243" s="13">
         <v>372000</v>
       </c>
-      <c r="D243" s="24"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D243" s="23">
+        <f t="shared" si="3"/>
+        <v>186000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>577</v>
       </c>
@@ -6010,9 +6743,12 @@
       <c r="C244" s="13">
         <v>284000</v>
       </c>
-      <c r="D244" s="24"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D244" s="23">
+        <f t="shared" si="3"/>
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>578</v>
       </c>
@@ -6022,9 +6758,12 @@
       <c r="C245" s="13">
         <v>304000</v>
       </c>
-      <c r="D245" s="24"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D245" s="23">
+        <f t="shared" si="3"/>
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>579</v>
       </c>
@@ -6034,9 +6773,12 @@
       <c r="C246" s="13">
         <v>266000</v>
       </c>
-      <c r="D246" s="24"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D246" s="23">
+        <f t="shared" si="3"/>
+        <v>133000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>580</v>
       </c>
@@ -6046,9 +6788,12 @@
       <c r="C247" s="13">
         <v>480000</v>
       </c>
-      <c r="D247" s="24"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D247" s="23">
+        <f t="shared" si="3"/>
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>581</v>
       </c>
@@ -6058,9 +6803,12 @@
       <c r="C248" s="13">
         <v>298000</v>
       </c>
-      <c r="D248" s="24"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D248" s="23">
+        <f t="shared" si="3"/>
+        <v>74500</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>582</v>
       </c>
@@ -6070,9 +6818,12 @@
       <c r="C249" s="13">
         <v>254000</v>
       </c>
-      <c r="D249" s="24"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D249" s="23">
+        <f t="shared" si="3"/>
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>583</v>
       </c>
@@ -6082,9 +6833,12 @@
       <c r="C250" s="13">
         <v>432000</v>
       </c>
-      <c r="D250" s="24"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D250" s="23">
+        <f t="shared" si="3"/>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>584</v>
       </c>
@@ -6094,9 +6848,12 @@
       <c r="C251" s="13">
         <v>269000</v>
       </c>
-      <c r="D251" s="24"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D251" s="23">
+        <f t="shared" si="3"/>
+        <v>67250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>585</v>
       </c>
@@ -6106,9 +6863,12 @@
       <c r="C252" s="13">
         <v>348000</v>
       </c>
-      <c r="D252" s="24"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D252" s="23">
+        <f t="shared" si="3"/>
+        <v>17400</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>586</v>
       </c>
@@ -6118,9 +6878,12 @@
       <c r="C253" s="13">
         <v>424000</v>
       </c>
-      <c r="D253" s="24"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D253" s="23">
+        <f t="shared" si="3"/>
+        <v>212000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>587</v>
       </c>
@@ -6130,9 +6893,12 @@
       <c r="C254" s="13">
         <v>384000</v>
       </c>
-      <c r="D254" s="24"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D254" s="23">
+        <f t="shared" si="3"/>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>588</v>
       </c>
@@ -6142,9 +6908,12 @@
       <c r="C255" s="13">
         <v>226000</v>
       </c>
-      <c r="D255" s="24"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D255" s="23">
+        <f t="shared" si="3"/>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>589</v>
       </c>
@@ -6154,9 +6923,12 @@
       <c r="C256" s="13">
         <v>213000</v>
       </c>
-      <c r="D256" s="24"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D256" s="23">
+        <f t="shared" si="3"/>
+        <v>53250</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>590</v>
       </c>
@@ -6166,9 +6938,12 @@
       <c r="C257" s="13">
         <v>164000</v>
       </c>
-      <c r="D257" s="24"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D257" s="23">
+        <f t="shared" si="3"/>
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>591</v>
       </c>
@@ -6178,9 +6953,12 @@
       <c r="C258" s="13">
         <v>473000</v>
       </c>
-      <c r="D258" s="24"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D258" s="23">
+        <f t="shared" si="3"/>
+        <v>118250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>592</v>
       </c>
@@ -6190,9 +6968,12 @@
       <c r="C259" s="13">
         <v>127000</v>
       </c>
-      <c r="D259" s="24"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D259" s="23">
+        <f t="shared" ref="D259:D322" si="4">IF($G$2 = B259, C259 * $H$2, IF($G$3 = B259, C259 * $H$3, IF($G$4 = B259, C259 * $H$4, IF($G$5 = B259, C259 * $H$5, 0))))</f>
+        <v>31750</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>593</v>
       </c>
@@ -6202,9 +6983,12 @@
       <c r="C260" s="13">
         <v>256000</v>
       </c>
-      <c r="D260" s="24"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D260" s="23">
+        <f t="shared" si="4"/>
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>594</v>
       </c>
@@ -6214,9 +6998,12 @@
       <c r="C261" s="13">
         <v>279000</v>
       </c>
-      <c r="D261" s="24"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D261" s="23">
+        <f t="shared" si="4"/>
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>595</v>
       </c>
@@ -6226,9 +7013,12 @@
       <c r="C262" s="13">
         <v>110000</v>
       </c>
-      <c r="D262" s="24"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D262" s="23">
+        <f t="shared" si="4"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>596</v>
       </c>
@@ -6238,9 +7028,12 @@
       <c r="C263" s="13">
         <v>487000</v>
       </c>
-      <c r="D263" s="24"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D263" s="23">
+        <f t="shared" si="4"/>
+        <v>121750</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>597</v>
       </c>
@@ -6250,9 +7043,12 @@
       <c r="C264" s="13">
         <v>228000</v>
       </c>
-      <c r="D264" s="24"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D264" s="23">
+        <f t="shared" si="4"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>598</v>
       </c>
@@ -6262,9 +7058,12 @@
       <c r="C265" s="13">
         <v>375000</v>
       </c>
-      <c r="D265" s="24"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D265" s="23">
+        <f t="shared" si="4"/>
+        <v>93750</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>599</v>
       </c>
@@ -6274,9 +7073,12 @@
       <c r="C266" s="13">
         <v>494000</v>
       </c>
-      <c r="D266" s="24"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D266" s="23">
+        <f t="shared" si="4"/>
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>600</v>
       </c>
@@ -6286,9 +7088,12 @@
       <c r="C267" s="13">
         <v>180000</v>
       </c>
-      <c r="D267" s="24"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D267" s="23">
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>601</v>
       </c>
@@ -6298,9 +7103,12 @@
       <c r="C268" s="13">
         <v>316000</v>
       </c>
-      <c r="D268" s="24"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D268" s="23">
+        <f t="shared" si="4"/>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>602</v>
       </c>
@@ -6310,9 +7118,12 @@
       <c r="C269" s="13">
         <v>474000</v>
       </c>
-      <c r="D269" s="24"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D269" s="23">
+        <f t="shared" si="4"/>
+        <v>118500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>603</v>
       </c>
@@ -6322,9 +7133,12 @@
       <c r="C270" s="13">
         <v>254000</v>
       </c>
-      <c r="D270" s="24"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D270" s="23">
+        <f t="shared" si="4"/>
+        <v>25400</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>604</v>
       </c>
@@ -6334,9 +7148,12 @@
       <c r="C271" s="13">
         <v>436000</v>
       </c>
-      <c r="D271" s="24"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D271" s="23">
+        <f t="shared" si="4"/>
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>605</v>
       </c>
@@ -6346,9 +7163,12 @@
       <c r="C272" s="13">
         <v>492000</v>
       </c>
-      <c r="D272" s="24"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D272" s="23">
+        <f t="shared" si="4"/>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>606</v>
       </c>
@@ -6358,9 +7178,12 @@
       <c r="C273" s="13">
         <v>377000</v>
       </c>
-      <c r="D273" s="24"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D273" s="23">
+        <f t="shared" si="4"/>
+        <v>18850</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>607</v>
       </c>
@@ -6370,9 +7193,12 @@
       <c r="C274" s="13">
         <v>221000</v>
       </c>
-      <c r="D274" s="24"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D274" s="23">
+        <f t="shared" si="4"/>
+        <v>55250</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>608</v>
       </c>
@@ -6382,9 +7208,12 @@
       <c r="C275" s="13">
         <v>341000</v>
       </c>
-      <c r="D275" s="24"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D275" s="23">
+        <f t="shared" si="4"/>
+        <v>34100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>609</v>
       </c>
@@ -6394,9 +7223,12 @@
       <c r="C276" s="13">
         <v>272000</v>
       </c>
-      <c r="D276" s="24"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D276" s="23">
+        <f t="shared" si="4"/>
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>610</v>
       </c>
@@ -6406,9 +7238,12 @@
       <c r="C277" s="13">
         <v>346000</v>
       </c>
-      <c r="D277" s="24"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D277" s="23">
+        <f t="shared" si="4"/>
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>611</v>
       </c>
@@ -6418,9 +7253,12 @@
       <c r="C278" s="13">
         <v>422000</v>
       </c>
-      <c r="D278" s="24"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D278" s="23">
+        <f t="shared" si="4"/>
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>612</v>
       </c>
@@ -6430,9 +7268,12 @@
       <c r="C279" s="13">
         <v>414000</v>
       </c>
-      <c r="D279" s="24"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D279" s="23">
+        <f t="shared" si="4"/>
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>613</v>
       </c>
@@ -6442,9 +7283,12 @@
       <c r="C280" s="13">
         <v>105000</v>
       </c>
-      <c r="D280" s="24"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D280" s="23">
+        <f t="shared" si="4"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>614</v>
       </c>
@@ -6454,9 +7298,12 @@
       <c r="C281" s="13">
         <v>244000</v>
       </c>
-      <c r="D281" s="24"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D281" s="23">
+        <f t="shared" si="4"/>
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>615</v>
       </c>
@@ -6466,9 +7313,12 @@
       <c r="C282" s="13">
         <v>312000</v>
       </c>
-      <c r="D282" s="24"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D282" s="23">
+        <f t="shared" si="4"/>
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>616</v>
       </c>
@@ -6478,9 +7328,12 @@
       <c r="C283" s="13">
         <v>343000</v>
       </c>
-      <c r="D283" s="24"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D283" s="23">
+        <f t="shared" si="4"/>
+        <v>34300</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>617</v>
       </c>
@@ -6490,9 +7343,12 @@
       <c r="C284" s="13">
         <v>112000</v>
       </c>
-      <c r="D284" s="24"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D284" s="23">
+        <f t="shared" si="4"/>
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>618</v>
       </c>
@@ -6502,9 +7358,12 @@
       <c r="C285" s="13">
         <v>445000</v>
       </c>
-      <c r="D285" s="24"/>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D285" s="23">
+        <f t="shared" si="4"/>
+        <v>222500</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>619</v>
       </c>
@@ -6514,9 +7373,12 @@
       <c r="C286" s="13">
         <v>349000</v>
       </c>
-      <c r="D286" s="24"/>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D286" s="23">
+        <f t="shared" si="4"/>
+        <v>34900</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>620</v>
       </c>
@@ -6526,9 +7388,12 @@
       <c r="C287" s="13">
         <v>454000</v>
       </c>
-      <c r="D287" s="24"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D287" s="23">
+        <f t="shared" si="4"/>
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>621</v>
       </c>
@@ -6538,9 +7403,12 @@
       <c r="C288" s="13">
         <v>255000</v>
       </c>
-      <c r="D288" s="24"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D288" s="23">
+        <f t="shared" si="4"/>
+        <v>63750</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>622</v>
       </c>
@@ -6550,9 +7418,12 @@
       <c r="C289" s="13">
         <v>375000</v>
       </c>
-      <c r="D289" s="24"/>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D289" s="23">
+        <f t="shared" si="4"/>
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>623</v>
       </c>
@@ -6562,9 +7433,12 @@
       <c r="C290" s="13">
         <v>177000</v>
       </c>
-      <c r="D290" s="24"/>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D290" s="23">
+        <f t="shared" si="4"/>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>624</v>
       </c>
@@ -6574,9 +7448,12 @@
       <c r="C291" s="13">
         <v>161000</v>
       </c>
-      <c r="D291" s="24"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D291" s="23">
+        <f t="shared" si="4"/>
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>625</v>
       </c>
@@ -6586,9 +7463,12 @@
       <c r="C292" s="13">
         <v>323000</v>
       </c>
-      <c r="D292" s="24"/>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D292" s="23">
+        <f t="shared" si="4"/>
+        <v>161500</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>626</v>
       </c>
@@ -6598,9 +7478,12 @@
       <c r="C293" s="13">
         <v>447000</v>
       </c>
-      <c r="D293" s="24"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D293" s="23">
+        <f t="shared" si="4"/>
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>627</v>
       </c>
@@ -6610,9 +7493,12 @@
       <c r="C294" s="13">
         <v>139000</v>
       </c>
-      <c r="D294" s="24"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D294" s="23">
+        <f t="shared" si="4"/>
+        <v>69500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>628</v>
       </c>
@@ -6622,9 +7508,12 @@
       <c r="C295" s="13">
         <v>224000</v>
       </c>
-      <c r="D295" s="24"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D295" s="23">
+        <f t="shared" si="4"/>
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>629</v>
       </c>
@@ -6634,9 +7523,12 @@
       <c r="C296" s="13">
         <v>156000</v>
       </c>
-      <c r="D296" s="24"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D296" s="23">
+        <f t="shared" si="4"/>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>630</v>
       </c>
@@ -6646,9 +7538,12 @@
       <c r="C297" s="13">
         <v>185000</v>
       </c>
-      <c r="D297" s="24"/>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D297" s="23">
+        <f t="shared" si="4"/>
+        <v>46250</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>631</v>
       </c>
@@ -6658,9 +7553,12 @@
       <c r="C298" s="13">
         <v>449000</v>
       </c>
-      <c r="D298" s="24"/>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D298" s="23">
+        <f t="shared" si="4"/>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>632</v>
       </c>
@@ -6670,9 +7568,12 @@
       <c r="C299" s="13">
         <v>408000</v>
       </c>
-      <c r="D299" s="24"/>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D299" s="23">
+        <f t="shared" si="4"/>
+        <v>204000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>633</v>
       </c>
@@ -6682,9 +7583,12 @@
       <c r="C300" s="13">
         <v>124000</v>
       </c>
-      <c r="D300" s="24"/>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D300" s="23">
+        <f t="shared" si="4"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>634</v>
       </c>
@@ -6694,9 +7598,12 @@
       <c r="C301" s="13">
         <v>278000</v>
       </c>
-      <c r="D301" s="24"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D301" s="23">
+        <f t="shared" si="4"/>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>635</v>
       </c>
@@ -6706,9 +7613,12 @@
       <c r="C302" s="13">
         <v>116000</v>
       </c>
-      <c r="D302" s="24"/>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D302" s="23">
+        <f t="shared" si="4"/>
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>636</v>
       </c>
@@ -6718,9 +7628,12 @@
       <c r="C303" s="13">
         <v>215000</v>
       </c>
-      <c r="D303" s="24"/>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D303" s="23">
+        <f t="shared" si="4"/>
+        <v>10750</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>637</v>
       </c>
@@ -6730,9 +7643,12 @@
       <c r="C304" s="13">
         <v>280000</v>
       </c>
-      <c r="D304" s="24"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D304" s="23">
+        <f t="shared" si="4"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>638</v>
       </c>
@@ -6742,9 +7658,12 @@
       <c r="C305" s="13">
         <v>208000</v>
       </c>
-      <c r="D305" s="24"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D305" s="23">
+        <f t="shared" si="4"/>
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>639</v>
       </c>
@@ -6754,9 +7673,12 @@
       <c r="C306" s="13">
         <v>124000</v>
       </c>
-      <c r="D306" s="24"/>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D306" s="23">
+        <f t="shared" si="4"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>640</v>
       </c>
@@ -6766,9 +7688,12 @@
       <c r="C307" s="13">
         <v>365000</v>
       </c>
-      <c r="D307" s="24"/>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D307" s="23">
+        <f t="shared" si="4"/>
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>641</v>
       </c>
@@ -6778,9 +7703,12 @@
       <c r="C308" s="13">
         <v>396000</v>
       </c>
-      <c r="D308" s="24"/>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D308" s="23">
+        <f t="shared" si="4"/>
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>642</v>
       </c>
@@ -6790,9 +7718,12 @@
       <c r="C309" s="13">
         <v>206000</v>
       </c>
-      <c r="D309" s="24"/>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D309" s="23">
+        <f t="shared" si="4"/>
+        <v>103000</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>643</v>
       </c>
@@ -6802,9 +7733,12 @@
       <c r="C310" s="13">
         <v>274000</v>
       </c>
-      <c r="D310" s="24"/>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D310" s="23">
+        <f t="shared" si="4"/>
+        <v>68500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>644</v>
       </c>
@@ -6814,9 +7748,12 @@
       <c r="C311" s="13">
         <v>439000</v>
       </c>
-      <c r="D311" s="24"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D311" s="23">
+        <f t="shared" si="4"/>
+        <v>43900</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>645</v>
       </c>
@@ -6826,9 +7763,12 @@
       <c r="C312" s="13">
         <v>407000</v>
       </c>
-      <c r="D312" s="24"/>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D312" s="23">
+        <f t="shared" si="4"/>
+        <v>101750</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>646</v>
       </c>
@@ -6838,9 +7778,12 @@
       <c r="C313" s="13">
         <v>325000</v>
       </c>
-      <c r="D313" s="24"/>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D313" s="23">
+        <f t="shared" si="4"/>
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>647</v>
       </c>
@@ -6850,9 +7793,12 @@
       <c r="C314" s="13">
         <v>178000</v>
       </c>
-      <c r="D314" s="24"/>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D314" s="23">
+        <f t="shared" si="4"/>
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>648</v>
       </c>
@@ -6862,9 +7808,12 @@
       <c r="C315" s="13">
         <v>423000</v>
       </c>
-      <c r="D315" s="24"/>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D315" s="23">
+        <f t="shared" si="4"/>
+        <v>211500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>649</v>
       </c>
@@ -6874,9 +7823,12 @@
       <c r="C316" s="13">
         <v>439000</v>
       </c>
-      <c r="D316" s="24"/>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D316" s="23">
+        <f t="shared" si="4"/>
+        <v>21950</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>650</v>
       </c>
@@ -6886,9 +7838,12 @@
       <c r="C317" s="13">
         <v>315000</v>
       </c>
-      <c r="D317" s="24"/>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D317" s="23">
+        <f t="shared" si="4"/>
+        <v>78750</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>651</v>
       </c>
@@ -6898,9 +7853,12 @@
       <c r="C318" s="13">
         <v>483000</v>
       </c>
-      <c r="D318" s="24"/>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D318" s="23">
+        <f t="shared" si="4"/>
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>652</v>
       </c>
@@ -6910,9 +7868,12 @@
       <c r="C319" s="13">
         <v>298000</v>
       </c>
-      <c r="D319" s="24"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D319" s="23">
+        <f t="shared" si="4"/>
+        <v>14900</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>653</v>
       </c>
@@ -6922,9 +7883,12 @@
       <c r="C320" s="13">
         <v>379000</v>
       </c>
-      <c r="D320" s="24"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D320" s="23">
+        <f t="shared" si="4"/>
+        <v>37900</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>654</v>
       </c>
@@ -6934,9 +7898,12 @@
       <c r="C321" s="13">
         <v>480000</v>
       </c>
-      <c r="D321" s="24"/>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D321" s="23">
+        <f t="shared" si="4"/>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>655</v>
       </c>
@@ -6946,9 +7913,12 @@
       <c r="C322" s="13">
         <v>115000</v>
       </c>
-      <c r="D322" s="24"/>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D322" s="23">
+        <f t="shared" si="4"/>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>656</v>
       </c>
@@ -6958,9 +7928,12 @@
       <c r="C323" s="13">
         <v>384000</v>
       </c>
-      <c r="D323" s="24"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D323" s="23">
+        <f t="shared" ref="D323:D386" si="5">IF($G$2 = B323, C323 * $H$2, IF($G$3 = B323, C323 * $H$3, IF($G$4 = B323, C323 * $H$4, IF($G$5 = B323, C323 * $H$5, 0))))</f>
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>657</v>
       </c>
@@ -6970,9 +7943,12 @@
       <c r="C324" s="13">
         <v>450000</v>
       </c>
-      <c r="D324" s="24"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D324" s="23">
+        <f t="shared" si="5"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>658</v>
       </c>
@@ -6982,9 +7958,12 @@
       <c r="C325" s="13">
         <v>328000</v>
       </c>
-      <c r="D325" s="24"/>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D325" s="23">
+        <f t="shared" si="5"/>
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>659</v>
       </c>
@@ -6994,9 +7973,12 @@
       <c r="C326" s="13">
         <v>145000</v>
       </c>
-      <c r="D326" s="24"/>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D326" s="23">
+        <f t="shared" si="5"/>
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>660</v>
       </c>
@@ -7006,9 +7988,12 @@
       <c r="C327" s="13">
         <v>124000</v>
       </c>
-      <c r="D327" s="24"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D327" s="23">
+        <f t="shared" si="5"/>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>661</v>
       </c>
@@ -7018,9 +8003,12 @@
       <c r="C328" s="13">
         <v>340000</v>
       </c>
-      <c r="D328" s="24"/>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D328" s="23">
+        <f t="shared" si="5"/>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>662</v>
       </c>
@@ -7030,9 +8018,12 @@
       <c r="C329" s="13">
         <v>473000</v>
       </c>
-      <c r="D329" s="24"/>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D329" s="23">
+        <f t="shared" si="5"/>
+        <v>118250</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>663</v>
       </c>
@@ -7042,9 +8033,12 @@
       <c r="C330" s="13">
         <v>372000</v>
       </c>
-      <c r="D330" s="24"/>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D330" s="23">
+        <f t="shared" si="5"/>
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>664</v>
       </c>
@@ -7054,9 +8048,12 @@
       <c r="C331" s="13">
         <v>187000</v>
       </c>
-      <c r="D331" s="24"/>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D331" s="23">
+        <f t="shared" si="5"/>
+        <v>46750</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>665</v>
       </c>
@@ -7066,9 +8063,12 @@
       <c r="C332" s="13">
         <v>278000</v>
       </c>
-      <c r="D332" s="24"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D332" s="23">
+        <f t="shared" si="5"/>
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>666</v>
       </c>
@@ -7078,9 +8078,12 @@
       <c r="C333" s="13">
         <v>110000</v>
       </c>
-      <c r="D333" s="24"/>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D333" s="23">
+        <f t="shared" si="5"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>667</v>
       </c>
@@ -7090,9 +8093,12 @@
       <c r="C334" s="13">
         <v>195000</v>
       </c>
-      <c r="D334" s="24"/>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D334" s="23">
+        <f t="shared" si="5"/>
+        <v>97500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>668</v>
       </c>
@@ -7102,9 +8108,12 @@
       <c r="C335" s="13">
         <v>311000</v>
       </c>
-      <c r="D335" s="24"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D335" s="23">
+        <f t="shared" si="5"/>
+        <v>31100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>669</v>
       </c>
@@ -7114,9 +8123,12 @@
       <c r="C336" s="13">
         <v>342000</v>
       </c>
-      <c r="D336" s="24"/>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D336" s="23">
+        <f t="shared" si="5"/>
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>670</v>
       </c>
@@ -7126,9 +8138,12 @@
       <c r="C337" s="13">
         <v>124000</v>
       </c>
-      <c r="D337" s="24"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D337" s="23">
+        <f t="shared" si="5"/>
+        <v>12400</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>671</v>
       </c>
@@ -7138,9 +8153,12 @@
       <c r="C338" s="13">
         <v>149000</v>
       </c>
-      <c r="D338" s="24"/>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D338" s="23">
+        <f t="shared" si="5"/>
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>672</v>
       </c>
@@ -7150,9 +8168,12 @@
       <c r="C339" s="13">
         <v>405000</v>
       </c>
-      <c r="D339" s="24"/>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D339" s="23">
+        <f t="shared" si="5"/>
+        <v>101250</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>673</v>
       </c>
@@ -7162,9 +8183,12 @@
       <c r="C340" s="13">
         <v>254000</v>
       </c>
-      <c r="D340" s="24"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D340" s="23">
+        <f t="shared" si="5"/>
+        <v>127000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>674</v>
       </c>
@@ -7174,9 +8198,12 @@
       <c r="C341" s="13">
         <v>106000</v>
       </c>
-      <c r="D341" s="24"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D341" s="23">
+        <f t="shared" si="5"/>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>675</v>
       </c>
@@ -7186,9 +8213,12 @@
       <c r="C342" s="13">
         <v>169000</v>
       </c>
-      <c r="D342" s="24"/>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D342" s="23">
+        <f t="shared" si="5"/>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>676</v>
       </c>
@@ -7198,9 +8228,12 @@
       <c r="C343" s="13">
         <v>494000</v>
       </c>
-      <c r="D343" s="24"/>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D343" s="23">
+        <f t="shared" si="5"/>
+        <v>49400</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>677</v>
       </c>
@@ -7210,9 +8243,12 @@
       <c r="C344" s="13">
         <v>293000</v>
       </c>
-      <c r="D344" s="24"/>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D344" s="23">
+        <f t="shared" si="5"/>
+        <v>73250</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>678</v>
       </c>
@@ -7222,9 +8258,12 @@
       <c r="C345" s="13">
         <v>492000</v>
       </c>
-      <c r="D345" s="24"/>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D345" s="23">
+        <f t="shared" si="5"/>
+        <v>123000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>679</v>
       </c>
@@ -7234,9 +8273,12 @@
       <c r="C346" s="13">
         <v>242000</v>
       </c>
-      <c r="D346" s="24"/>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D346" s="23">
+        <f t="shared" si="5"/>
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>680</v>
       </c>
@@ -7246,9 +8288,12 @@
       <c r="C347" s="13">
         <v>299000</v>
       </c>
-      <c r="D347" s="24"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D347" s="23">
+        <f t="shared" si="5"/>
+        <v>149500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>681</v>
       </c>
@@ -7258,9 +8303,12 @@
       <c r="C348" s="13">
         <v>345000</v>
       </c>
-      <c r="D348" s="24"/>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D348" s="23">
+        <f t="shared" si="5"/>
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>682</v>
       </c>
@@ -7270,9 +8318,12 @@
       <c r="C349" s="13">
         <v>445000</v>
       </c>
-      <c r="D349" s="24"/>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D349" s="23">
+        <f t="shared" si="5"/>
+        <v>22250</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>683</v>
       </c>
@@ -7282,9 +8333,12 @@
       <c r="C350" s="13">
         <v>138000</v>
       </c>
-      <c r="D350" s="24"/>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D350" s="23">
+        <f t="shared" si="5"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>684</v>
       </c>
@@ -7294,9 +8348,12 @@
       <c r="C351" s="13">
         <v>221000</v>
       </c>
-      <c r="D351" s="24"/>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D351" s="23">
+        <f t="shared" si="5"/>
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>685</v>
       </c>
@@ -7306,9 +8363,12 @@
       <c r="C352" s="13">
         <v>110000</v>
       </c>
-      <c r="D352" s="24"/>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D352" s="23">
+        <f t="shared" si="5"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>686</v>
       </c>
@@ -7318,9 +8378,12 @@
       <c r="C353" s="13">
         <v>203000</v>
       </c>
-      <c r="D353" s="24"/>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D353" s="23">
+        <f t="shared" si="5"/>
+        <v>50750</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>687</v>
       </c>
@@ -7330,9 +8393,12 @@
       <c r="C354" s="13">
         <v>396000</v>
       </c>
-      <c r="D354" s="24"/>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D354" s="23">
+        <f t="shared" si="5"/>
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>688</v>
       </c>
@@ -7342,9 +8408,12 @@
       <c r="C355" s="13">
         <v>214000</v>
       </c>
-      <c r="D355" s="24"/>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D355" s="23">
+        <f t="shared" si="5"/>
+        <v>10700</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>689</v>
       </c>
@@ -7354,9 +8423,12 @@
       <c r="C356" s="13">
         <v>435000</v>
       </c>
-      <c r="D356" s="24"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D356" s="23">
+        <f t="shared" si="5"/>
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>690</v>
       </c>
@@ -7366,9 +8438,12 @@
       <c r="C357" s="13">
         <v>454000</v>
       </c>
-      <c r="D357" s="24"/>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D357" s="23">
+        <f t="shared" si="5"/>
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>691</v>
       </c>
@@ -7378,9 +8453,12 @@
       <c r="C358" s="13">
         <v>259000</v>
       </c>
-      <c r="D358" s="24"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D358" s="23">
+        <f t="shared" si="5"/>
+        <v>64750</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>692</v>
       </c>
@@ -7390,9 +8468,12 @@
       <c r="C359" s="13">
         <v>241000</v>
       </c>
-      <c r="D359" s="24"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D359" s="23">
+        <f t="shared" si="5"/>
+        <v>120500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>693</v>
       </c>
@@ -7402,9 +8483,12 @@
       <c r="C360" s="13">
         <v>194000</v>
       </c>
-      <c r="D360" s="24"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D360" s="23">
+        <f t="shared" si="5"/>
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>694</v>
       </c>
@@ -7414,9 +8498,12 @@
       <c r="C361" s="13">
         <v>100000</v>
       </c>
-      <c r="D361" s="24"/>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D361" s="23">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>695</v>
       </c>
@@ -7426,9 +8513,12 @@
       <c r="C362" s="13">
         <v>322000</v>
       </c>
-      <c r="D362" s="24"/>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D362" s="23">
+        <f t="shared" si="5"/>
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>696</v>
       </c>
@@ -7438,9 +8528,12 @@
       <c r="C363" s="13">
         <v>278000</v>
       </c>
-      <c r="D363" s="24"/>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D363" s="23">
+        <f t="shared" si="5"/>
+        <v>27800</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>697</v>
       </c>
@@ -7450,9 +8543,12 @@
       <c r="C364" s="13">
         <v>119000</v>
       </c>
-      <c r="D364" s="24"/>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D364" s="23">
+        <f t="shared" si="5"/>
+        <v>29750</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>698</v>
       </c>
@@ -7462,9 +8558,12 @@
       <c r="C365" s="13">
         <v>264000</v>
       </c>
-      <c r="D365" s="24"/>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D365" s="23">
+        <f t="shared" si="5"/>
+        <v>13200</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>699</v>
       </c>
@@ -7474,9 +8573,12 @@
       <c r="C366" s="13">
         <v>460000</v>
       </c>
-      <c r="D366" s="24"/>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D366" s="23">
+        <f t="shared" si="5"/>
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>700</v>
       </c>
@@ -7486,9 +8588,12 @@
       <c r="C367" s="13">
         <v>125000</v>
       </c>
-      <c r="D367" s="24"/>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D367" s="23">
+        <f t="shared" si="5"/>
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>701</v>
       </c>
@@ -7498,9 +8603,12 @@
       <c r="C368" s="13">
         <v>208000</v>
       </c>
-      <c r="D368" s="24"/>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D368" s="23">
+        <f t="shared" si="5"/>
+        <v>10400</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>702</v>
       </c>
@@ -7510,9 +8618,12 @@
       <c r="C369" s="13">
         <v>150000</v>
       </c>
-      <c r="D369" s="24"/>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D369" s="23">
+        <f t="shared" si="5"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>703</v>
       </c>
@@ -7522,9 +8633,12 @@
       <c r="C370" s="13">
         <v>177000</v>
       </c>
-      <c r="D370" s="24"/>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D370" s="23">
+        <f t="shared" si="5"/>
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>704</v>
       </c>
@@ -7534,9 +8648,12 @@
       <c r="C371" s="13">
         <v>180000</v>
       </c>
-      <c r="D371" s="24"/>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D371" s="23">
+        <f t="shared" si="5"/>
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>705</v>
       </c>
@@ -7546,9 +8663,12 @@
       <c r="C372" s="13">
         <v>448000</v>
       </c>
-      <c r="D372" s="24"/>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D372" s="23">
+        <f t="shared" si="5"/>
+        <v>224000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>706</v>
       </c>
@@ -7558,9 +8678,12 @@
       <c r="C373" s="13">
         <v>485000</v>
       </c>
-      <c r="D373" s="24"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D373" s="23">
+        <f t="shared" si="5"/>
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>707</v>
       </c>
@@ -7570,9 +8693,12 @@
       <c r="C374" s="13">
         <v>266000</v>
       </c>
-      <c r="D374" s="24"/>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D374" s="23">
+        <f t="shared" si="5"/>
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>708</v>
       </c>
@@ -7582,9 +8708,12 @@
       <c r="C375" s="13">
         <v>242000</v>
       </c>
-      <c r="D375" s="24"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D375" s="23">
+        <f t="shared" si="5"/>
+        <v>60500</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>709</v>
       </c>
@@ -7594,9 +8723,12 @@
       <c r="C376" s="13">
         <v>449000</v>
       </c>
-      <c r="D376" s="24"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D376" s="23">
+        <f t="shared" si="5"/>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>710</v>
       </c>
@@ -7606,9 +8738,12 @@
       <c r="C377" s="13">
         <v>287000</v>
       </c>
-      <c r="D377" s="24"/>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D377" s="23">
+        <f t="shared" si="5"/>
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>711</v>
       </c>
@@ -7618,9 +8753,12 @@
       <c r="C378" s="13">
         <v>208000</v>
       </c>
-      <c r="D378" s="24"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D378" s="23">
+        <f t="shared" si="5"/>
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>712</v>
       </c>
@@ -7630,9 +8768,12 @@
       <c r="C379" s="13">
         <v>421000</v>
       </c>
-      <c r="D379" s="24"/>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D379" s="23">
+        <f t="shared" si="5"/>
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>713</v>
       </c>
@@ -7642,9 +8783,12 @@
       <c r="C380" s="13">
         <v>165000</v>
       </c>
-      <c r="D380" s="24"/>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D380" s="23">
+        <f t="shared" si="5"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>714</v>
       </c>
@@ -7654,9 +8798,12 @@
       <c r="C381" s="13">
         <v>177000</v>
       </c>
-      <c r="D381" s="24"/>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D381" s="23">
+        <f t="shared" si="5"/>
+        <v>44250</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>715</v>
       </c>
@@ -7666,9 +8813,12 @@
       <c r="C382" s="13">
         <v>447000</v>
       </c>
-      <c r="D382" s="24"/>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D382" s="23">
+        <f t="shared" si="5"/>
+        <v>22350</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>716</v>
       </c>
@@ -7678,9 +8828,12 @@
       <c r="C383" s="13">
         <v>383000</v>
       </c>
-      <c r="D383" s="24"/>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D383" s="23">
+        <f t="shared" si="5"/>
+        <v>95750</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>717</v>
       </c>
@@ -7690,9 +8843,12 @@
       <c r="C384" s="13">
         <v>144000</v>
       </c>
-      <c r="D384" s="24"/>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D384" s="23">
+        <f t="shared" si="5"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>718</v>
       </c>
@@ -7702,9 +8858,12 @@
       <c r="C385" s="13">
         <v>261000</v>
       </c>
-      <c r="D385" s="24"/>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D385" s="23">
+        <f t="shared" si="5"/>
+        <v>26100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>719</v>
       </c>
@@ -7714,9 +8873,12 @@
       <c r="C386" s="13">
         <v>399000</v>
       </c>
-      <c r="D386" s="24"/>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D386" s="23">
+        <f t="shared" si="5"/>
+        <v>39900</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>720</v>
       </c>
@@ -7726,9 +8888,12 @@
       <c r="C387" s="13">
         <v>402000</v>
       </c>
-      <c r="D387" s="24"/>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D387" s="23">
+        <f t="shared" ref="D387:D401" si="6">IF($G$2 = B387, C387 * $H$2, IF($G$3 = B387, C387 * $H$3, IF($G$4 = B387, C387 * $H$4, IF($G$5 = B387, C387 * $H$5, 0))))</f>
+        <v>100500</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>721</v>
       </c>
@@ -7738,9 +8903,12 @@
       <c r="C388" s="13">
         <v>101000</v>
       </c>
-      <c r="D388" s="24"/>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D388" s="23">
+        <f t="shared" si="6"/>
+        <v>10100</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>722</v>
       </c>
@@ -7750,9 +8918,12 @@
       <c r="C389" s="13">
         <v>265000</v>
       </c>
-      <c r="D389" s="24"/>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D389" s="23">
+        <f t="shared" si="6"/>
+        <v>132500</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>723</v>
       </c>
@@ -7762,9 +8933,12 @@
       <c r="C390" s="13">
         <v>363000</v>
       </c>
-      <c r="D390" s="24"/>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D390" s="23">
+        <f t="shared" si="6"/>
+        <v>181500</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>724</v>
       </c>
@@ -7774,9 +8948,12 @@
       <c r="C391" s="13">
         <v>215000</v>
       </c>
-      <c r="D391" s="24"/>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D391" s="23">
+        <f t="shared" si="6"/>
+        <v>53750</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>725</v>
       </c>
@@ -7786,9 +8963,12 @@
       <c r="C392" s="13">
         <v>157000</v>
       </c>
-      <c r="D392" s="24"/>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D392" s="23">
+        <f t="shared" si="6"/>
+        <v>78500</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>726</v>
       </c>
@@ -7798,9 +8978,12 @@
       <c r="C393" s="13">
         <v>401000</v>
       </c>
-      <c r="D393" s="24"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D393" s="23">
+        <f t="shared" si="6"/>
+        <v>200500</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>727</v>
       </c>
@@ -7810,9 +8993,12 @@
       <c r="C394" s="13">
         <v>134000</v>
       </c>
-      <c r="D394" s="24"/>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D394" s="23">
+        <f t="shared" si="6"/>
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>728</v>
       </c>
@@ -7822,9 +9008,12 @@
       <c r="C395" s="13">
         <v>170000</v>
       </c>
-      <c r="D395" s="24"/>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D395" s="23">
+        <f t="shared" si="6"/>
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>729</v>
       </c>
@@ -7834,9 +9023,12 @@
       <c r="C396" s="13">
         <v>103000</v>
       </c>
-      <c r="D396" s="24"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D396" s="23">
+        <f t="shared" si="6"/>
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>730</v>
       </c>
@@ -7846,9 +9038,12 @@
       <c r="C397" s="13">
         <v>297000</v>
       </c>
-      <c r="D397" s="24"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D397" s="23">
+        <f t="shared" si="6"/>
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>731</v>
       </c>
@@ -7858,9 +9053,12 @@
       <c r="C398" s="13">
         <v>141000</v>
       </c>
-      <c r="D398" s="24"/>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D398" s="23">
+        <f t="shared" si="6"/>
+        <v>14100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>732</v>
       </c>
@@ -7870,9 +9068,12 @@
       <c r="C399" s="13">
         <v>279000</v>
       </c>
-      <c r="D399" s="24"/>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D399" s="23">
+        <f t="shared" si="6"/>
+        <v>139500</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>733</v>
       </c>
@@ -7882,9 +9083,12 @@
       <c r="C400" s="13">
         <v>247000</v>
       </c>
-      <c r="D400" s="24"/>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D400" s="23">
+        <f t="shared" si="6"/>
+        <v>24700</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>734</v>
       </c>
@@ -7894,7 +9098,10 @@
       <c r="C401" s="13">
         <v>220000</v>
       </c>
-      <c r="D401" s="24"/>
+      <c r="D401" s="23">
+        <f t="shared" si="6"/>
+        <v>22000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -7906,238 +9113,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832FA5D-9351-41D3-8C94-970B4E969281}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.33203125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="7" max="9" width="12.21875" customWidth="1"/>
+    <col min="1" max="2" width="14.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="7" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>741</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>758</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>757</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="32" t="s">
         <v>760</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
         <v>742</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>58729</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="26"/>
-      <c r="G2" s="21" t="s">
+      <c r="C2" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.05</v>
+      </c>
+      <c r="D2" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>2936.4500000000003</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>743</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>162517</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="27"/>
-      <c r="G3" s="22">
+      <c r="C3" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>16251.7</v>
+      </c>
+      <c r="G3" s="21">
         <v>0</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="21">
         <v>50000</v>
       </c>
       <c r="I3" s="19">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>432944</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="26"/>
-      <c r="G4" s="22">
+      <c r="C4" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>129883.2</v>
+      </c>
+      <c r="G4" s="21">
         <v>50001</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="21">
         <v>100000</v>
       </c>
       <c r="I4" s="19">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>514342</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="27"/>
-      <c r="G5" s="22">
+      <c r="C5" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>154302.6</v>
+      </c>
+      <c r="G5" s="21">
         <v>100001</v>
       </c>
-      <c r="H5" s="22">
+      <c r="H5" s="21">
         <v>200000</v>
       </c>
       <c r="I5" s="19">
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>746</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>214635</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="26"/>
-      <c r="G6" s="22">
+      <c r="C6" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>32195.25</v>
+      </c>
+      <c r="G6" s="21">
         <v>200001</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>300000</v>
       </c>
       <c r="I6" s="19">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
         <v>747</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="26">
         <v>239239</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="27"/>
-      <c r="G7" s="22">
+      <c r="C7" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.15</v>
+      </c>
+      <c r="D7" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>35885.85</v>
+      </c>
+      <c r="G7" s="21">
         <v>300001</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>330</v>
       </c>
       <c r="I7" s="19">
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>748</v>
       </c>
-      <c r="B8" s="26">
-        <v>40622</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="B8" s="25">
+        <v>100</v>
+      </c>
+      <c r="C8" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>389479</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>116843.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>750</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="25">
         <v>553835</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="C10" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>166150.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="26">
         <v>446282</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="C11" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>133884.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
         <v>752</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>310454</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+      <c r="C12" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>93136.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>753</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26">
         <v>523471</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>157041.29999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
         <v>754</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>54717</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="26"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="C14" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.05</v>
+      </c>
+      <c r="D14" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>2735.8500000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>755</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26">
         <v>398008</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="27"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="C15" s="31">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.3</v>
+      </c>
+      <c r="D15" s="26">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>119402.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
         <v>756</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>70346</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="30">
+        <f>IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$3, $I$3, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$4, $I$4, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$5, $I$5, IF(Tabela2[[#This Row],[Faturado]] &lt;= $H$6,$I$6,$I$7))))</f>
+        <v>0.05</v>
+      </c>
+      <c r="D16" s="25">
+        <f>PRODUCT(Tabela2[[#This Row],[Faturado]] * Tabela2[[#This Row],[Bônus]])</f>
+        <v>3517.3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8156,16 +9455,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="5.28515625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8190,7 +9489,7 @@
       <c r="K1" s="10"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>29137</v>
       </c>
@@ -8204,7 +9503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>39687</v>
       </c>
@@ -8218,7 +9517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>42124</v>
       </c>
@@ -8241,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>37645</v>
       </c>
@@ -8260,7 +9559,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>42831</v>
       </c>
@@ -8279,7 +9578,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>37051</v>
       </c>
@@ -8298,7 +9597,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>20140</v>
       </c>
@@ -8317,7 +9616,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>41742</v>
       </c>
@@ -8336,7 +9635,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>35371</v>
       </c>
@@ -8350,7 +9649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>38407</v>
       </c>
@@ -8364,7 +9663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>22333</v>
       </c>
@@ -8378,7 +9677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>48181</v>
       </c>
@@ -8392,7 +9691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>49849</v>
       </c>
@@ -8406,7 +9705,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>34284</v>
       </c>
@@ -8420,7 +9719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>26631</v>
       </c>
@@ -8434,7 +9733,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>27454</v>
       </c>
@@ -8448,7 +9747,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>29558</v>
       </c>
@@ -8462,7 +9761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>47188</v>
       </c>
@@ -8476,7 +9775,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>31185</v>
       </c>
@@ -8490,7 +9789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>10863</v>
       </c>
@@ -8504,7 +9803,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>46432</v>
       </c>
@@ -8518,7 +9817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>24628</v>
       </c>
@@ -8532,7 +9831,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>16070</v>
       </c>
@@ -8546,7 +9845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>45176</v>
       </c>
@@ -8560,7 +9859,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>47951</v>
       </c>
@@ -8574,7 +9873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>19050</v>
       </c>
@@ -8588,7 +9887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>20596</v>
       </c>
@@ -8602,7 +9901,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>32713</v>
       </c>
@@ -8616,7 +9915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>19864</v>
       </c>
@@ -8630,7 +9929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>35135</v>
       </c>
@@ -8644,7 +9943,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>10933</v>
       </c>
@@ -8658,7 +9957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>12742</v>
       </c>
@@ -8672,7 +9971,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>42515</v>
       </c>
@@ -8686,7 +9985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>22280</v>
       </c>
@@ -8700,7 +9999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>22586</v>
       </c>
@@ -8714,7 +10013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>22053</v>
       </c>
@@ -8728,7 +10027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>28511</v>
       </c>
@@ -8742,7 +10041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>39014</v>
       </c>
@@ -8756,7 +10055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>18258</v>
       </c>
@@ -8770,7 +10069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>39010</v>
       </c>
@@ -8784,7 +10083,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>11405</v>
       </c>
@@ -8798,7 +10097,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>28765</v>
       </c>
@@ -8812,7 +10111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>41383</v>
       </c>
@@ -8826,7 +10125,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>14541</v>
       </c>
@@ -8840,7 +10139,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>10433</v>
       </c>
@@ -8854,7 +10153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>47237</v>
       </c>
@@ -8868,7 +10167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>37280</v>
       </c>
@@ -8882,7 +10181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>20267</v>
       </c>
@@ -8896,7 +10195,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>39686</v>
       </c>
@@ -8910,7 +10209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>27052</v>
       </c>
@@ -8924,7 +10223,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>20676</v>
       </c>
@@ -8938,7 +10237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>35903</v>
       </c>
@@ -8952,7 +10251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43035</v>
       </c>
@@ -8966,7 +10265,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>29685</v>
       </c>
@@ -8980,7 +10279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>48418</v>
       </c>
@@ -8994,7 +10293,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>30509</v>
       </c>
@@ -9008,7 +10307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>48739</v>
       </c>
@@ -9022,7 +10321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>45261</v>
       </c>
@@ -9036,7 +10335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>41476</v>
       </c>
@@ -9050,7 +10349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>27507</v>
       </c>
@@ -9064,7 +10363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>17244</v>
       </c>
@@ -9078,7 +10377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>15512</v>
       </c>
@@ -9092,7 +10391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>39594</v>
       </c>
@@ -9106,7 +10405,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>13567</v>
       </c>
@@ -9120,7 +10419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>38887</v>
       </c>
@@ -9134,7 +10433,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>21569</v>
       </c>
@@ -9148,7 +10447,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>44166</v>
       </c>
@@ -9162,7 +10461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>13062</v>
       </c>
@@ -9176,7 +10475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>18515</v>
       </c>
@@ -9190,7 +10489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>16698</v>
       </c>
@@ -9204,7 +10503,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>33323</v>
       </c>
@@ -9218,7 +10517,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>18188</v>
       </c>
@@ -9232,7 +10531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>22891</v>
       </c>
@@ -9246,7 +10545,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>25451</v>
       </c>
@@ -9260,7 +10559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>43517</v>
       </c>
@@ -9274,7 +10573,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>10530</v>
       </c>
@@ -9288,7 +10587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>49537</v>
       </c>
@@ -9302,7 +10601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40357</v>
       </c>
@@ -9316,7 +10615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>39950</v>
       </c>
@@ -9330,7 +10629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>12904</v>
       </c>
@@ -9344,7 +10643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>17730</v>
       </c>
@@ -9358,7 +10657,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>32050</v>
       </c>
@@ -9372,7 +10671,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>26053</v>
       </c>
@@ -9386,7 +10685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>19025</v>
       </c>
@@ -9400,7 +10699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>49554</v>
       </c>
@@ -9414,7 +10713,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>12413</v>
       </c>
@@ -9428,7 +10727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>43326</v>
       </c>
@@ -9442,7 +10741,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>26743</v>
       </c>
@@ -9456,7 +10755,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>38831</v>
       </c>
@@ -9470,7 +10769,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>26512</v>
       </c>
@@ -9484,7 +10783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>38445</v>
       </c>
@@ -9498,7 +10797,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>32230</v>
       </c>
@@ -9512,7 +10811,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>30820</v>
       </c>
@@ -9526,7 +10825,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>49203</v>
       </c>
@@ -9540,7 +10839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>14338</v>
       </c>
@@ -9554,7 +10853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>35182</v>
       </c>
@@ -9568,7 +10867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>36230</v>
       </c>
@@ -9582,7 +10881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45647</v>
       </c>
@@ -9596,7 +10895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>38966</v>
       </c>
@@ -9610,7 +10909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>44149</v>
       </c>
@@ -9624,7 +10923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40157</v>
       </c>
@@ -9638,7 +10937,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>44667</v>
       </c>
@@ -9652,7 +10951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>28698</v>
       </c>
@@ -9666,7 +10965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>46729</v>
       </c>
@@ -9680,7 +10979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>32905</v>
       </c>
@@ -9694,7 +10993,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>29299</v>
       </c>
@@ -9708,7 +11007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>38010</v>
       </c>
@@ -9722,7 +11021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>38503</v>
       </c>
@@ -9736,7 +11035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>21625</v>
       </c>
@@ -9750,7 +11049,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>32275</v>
       </c>
@@ -9764,7 +11063,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>39211</v>
       </c>
@@ -9778,7 +11077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>35713</v>
       </c>
@@ -9792,7 +11091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>42643</v>
       </c>
@@ -9806,7 +11105,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>49999</v>
       </c>
@@ -9820,7 +11119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>26895</v>
       </c>
@@ -9834,7 +11133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>39830</v>
       </c>
@@ -9848,7 +11147,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>30076</v>
       </c>
@@ -9862,7 +11161,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>19162</v>
       </c>
@@ -9876,7 +11175,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>20626</v>
       </c>
@@ -9890,7 +11189,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>28926</v>
       </c>
@@ -9904,7 +11203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>39375</v>
       </c>
@@ -9918,7 +11217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>23677</v>
       </c>
@@ -9932,7 +11231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>20535</v>
       </c>
@@ -9946,7 +11245,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>37410</v>
       </c>
@@ -9960,7 +11259,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>13380</v>
       </c>
@@ -9974,7 +11273,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40295</v>
       </c>
@@ -9988,7 +11287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>31830</v>
       </c>
@@ -10002,7 +11301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>33472</v>
       </c>
@@ -10016,7 +11315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>13877</v>
       </c>
@@ -10030,7 +11329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>47866</v>
       </c>
@@ -10044,7 +11343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>17713</v>
       </c>
@@ -10058,7 +11357,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45247</v>
       </c>
@@ -10072,7 +11371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>23770</v>
       </c>
@@ -10086,7 +11385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>27580</v>
       </c>
@@ -10100,7 +11399,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>18185</v>
       </c>
@@ -10114,7 +11413,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>18353</v>
       </c>
@@ -10128,7 +11427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>48774</v>
       </c>
@@ -10142,7 +11441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>12928</v>
       </c>
@@ -10156,7 +11455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>13903</v>
       </c>
@@ -10170,7 +11469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>41101</v>
       </c>
@@ -10184,7 +11483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45165</v>
       </c>
@@ -10198,7 +11497,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>26625</v>
       </c>
@@ -10212,7 +11511,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>11149</v>
       </c>
@@ -10226,7 +11525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>42202</v>
       </c>
@@ -10240,7 +11539,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>25319</v>
       </c>
@@ -10254,7 +11553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>44225</v>
       </c>
@@ -10268,7 +11567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>14401</v>
       </c>
@@ -10282,7 +11581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>30514</v>
       </c>
@@ -10296,7 +11595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>24397</v>
       </c>
@@ -10310,7 +11609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>33087</v>
       </c>
@@ -10324,7 +11623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>15961</v>
       </c>
@@ -10338,7 +11637,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>32159</v>
       </c>
@@ -10352,7 +11651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>38993</v>
       </c>
@@ -10366,7 +11665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>10387</v>
       </c>
@@ -10380,7 +11679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>10856</v>
       </c>
@@ -10394,7 +11693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>36291</v>
       </c>
@@ -10408,7 +11707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>33679</v>
       </c>
@@ -10422,7 +11721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>20971</v>
       </c>
@@ -10436,7 +11735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>47162</v>
       </c>
@@ -10450,7 +11749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>47084</v>
       </c>
@@ -10464,7 +11763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>32113</v>
       </c>
@@ -10478,7 +11777,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>14472</v>
       </c>
@@ -10492,7 +11791,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>33985</v>
       </c>
@@ -10506,7 +11805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>12853</v>
       </c>
@@ -10520,7 +11819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>37582</v>
       </c>
@@ -10534,7 +11833,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>46305</v>
       </c>
@@ -10548,7 +11847,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>15095</v>
       </c>
@@ -10562,7 +11861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>34786</v>
       </c>
@@ -10576,7 +11875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>44480</v>
       </c>
@@ -10590,7 +11889,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>21534</v>
       </c>
@@ -10604,7 +11903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>38000</v>
       </c>
@@ -10618,7 +11917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>20880</v>
       </c>
@@ -10632,7 +11931,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>19200</v>
       </c>
@@ -10646,7 +11945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>34801</v>
       </c>
@@ -10660,7 +11959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>30557</v>
       </c>
@@ -10674,7 +11973,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>39944</v>
       </c>
@@ -10688,7 +11987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>25329</v>
       </c>
@@ -10702,7 +12001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>23514</v>
       </c>
@@ -10716,7 +12015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>46148</v>
       </c>
@@ -10730,7 +12029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>35131</v>
       </c>
@@ -10744,7 +12043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>48994</v>
       </c>
@@ -10758,7 +12057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>19865</v>
       </c>
@@ -10772,7 +12071,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>44934</v>
       </c>
@@ -10786,7 +12085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>42453</v>
       </c>
@@ -10800,7 +12099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>36975</v>
       </c>
@@ -10814,7 +12113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>27557</v>
       </c>
@@ -10828,7 +12127,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>25101</v>
       </c>
@@ -10842,7 +12141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>35939</v>
       </c>
@@ -10856,7 +12155,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>33783</v>
       </c>
@@ -10870,7 +12169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>23766</v>
       </c>
@@ -10884,7 +12183,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>49392</v>
       </c>
@@ -10898,7 +12197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>42456</v>
       </c>
@@ -10912,7 +12211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>12084</v>
       </c>
@@ -10926,7 +12225,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>40192</v>
       </c>
@@ -10940,7 +12239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>11650</v>
       </c>
@@ -10954,7 +12253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>20889</v>
       </c>
@@ -10968,7 +12267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>48018</v>
       </c>
@@ -10982,7 +12281,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>36579</v>
       </c>
@@ -10996,7 +12295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>20784</v>
       </c>
@@ -11010,7 +12309,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>48332</v>
       </c>
@@ -11024,7 +12323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>24454</v>
       </c>
@@ -11038,7 +12337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>32354</v>
       </c>
@@ -11052,7 +12351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>32600</v>
       </c>
@@ -11066,7 +12365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>40727</v>
       </c>
@@ -11080,7 +12379,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>29312</v>
       </c>
@@ -11094,7 +12393,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>14553</v>
       </c>
@@ -11108,7 +12407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>24953</v>
       </c>
@@ -11122,7 +12421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>28343</v>
       </c>
@@ -11136,7 +12435,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>32168</v>
       </c>
@@ -11150,7 +12449,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>42546</v>
       </c>
@@ -11164,7 +12463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>16829</v>
       </c>
@@ -11178,7 +12477,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>30464</v>
       </c>
@@ -11192,7 +12491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>13001</v>
       </c>
@@ -11206,7 +12505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>11937</v>
       </c>
@@ -11220,7 +12519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>41777</v>
       </c>
@@ -11234,7 +12533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>35059</v>
       </c>
@@ -11248,7 +12547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>49846</v>
       </c>
@@ -11262,7 +12561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>31338</v>
       </c>
@@ -11276,7 +12575,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>22961</v>
       </c>
@@ -11290,7 +12589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>40927</v>
       </c>
@@ -11304,7 +12603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>41949</v>
       </c>
@@ -11318,7 +12617,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>32663</v>
       </c>
@@ -11332,7 +12631,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>24412</v>
       </c>
@@ -11346,7 +12645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>21954</v>
       </c>
@@ -11360,7 +12659,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>44376</v>
       </c>
@@ -11374,7 +12673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>19400</v>
       </c>
@@ -11388,7 +12687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>39800</v>
       </c>
@@ -11402,7 +12701,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>48734</v>
       </c>
@@ -11416,7 +12715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>48985</v>
       </c>
@@ -11430,7 +12729,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>45487</v>
       </c>
@@ -11444,7 +12743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>27759</v>
       </c>
@@ -11458,7 +12757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>21951</v>
       </c>
@@ -11472,7 +12771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>13472</v>
       </c>
@@ -11486,7 +12785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>24810</v>
       </c>
@@ -11500,7 +12799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>34458</v>
       </c>
@@ -11514,7 +12813,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>19531</v>
       </c>
@@ -11528,7 +12827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>32747</v>
       </c>
@@ -11542,7 +12841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>42435</v>
       </c>
@@ -11556,7 +12855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>14261</v>
       </c>
@@ -11570,7 +12869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>14166</v>
       </c>
@@ -11584,7 +12883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>32387</v>
       </c>
@@ -11598,7 +12897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>26522</v>
       </c>
@@ -11612,7 +12911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>16443</v>
       </c>
@@ -11626,7 +12925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>14705</v>
       </c>
@@ -11640,7 +12939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>44619</v>
       </c>
@@ -11654,7 +12953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>30971</v>
       </c>
@@ -11668,7 +12967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>18787</v>
       </c>
@@ -11682,7 +12981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>41229</v>
       </c>
@@ -11696,7 +12995,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>32103</v>
       </c>
@@ -11710,7 +13009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>30143</v>
       </c>
@@ -11724,7 +13023,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>15805</v>
       </c>
@@ -11738,7 +13037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>28209</v>
       </c>
@@ -11752,7 +13051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>45641</v>
       </c>
@@ -11766,7 +13065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>34446</v>
       </c>
@@ -11780,7 +13079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>22598</v>
       </c>
@@ -11794,7 +13093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>34486</v>
       </c>
@@ -11808,7 +13107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>33463</v>
       </c>
@@ -11822,7 +13121,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>46604</v>
       </c>
@@ -11836,7 +13135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>33393</v>
       </c>
@@ -11850,7 +13149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>38839</v>
       </c>
@@ -11864,7 +13163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>16219</v>
       </c>
@@ -11878,7 +13177,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>34867</v>
       </c>
@@ -11892,7 +13191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>43870</v>
       </c>
@@ -11906,7 +13205,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>34527</v>
       </c>
@@ -11920,7 +13219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>35125</v>
       </c>
@@ -11934,7 +13233,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>26264</v>
       </c>
@@ -11948,7 +13247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>48261</v>
       </c>
@@ -11962,7 +13261,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>39800</v>
       </c>
@@ -11976,7 +13275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>32727</v>
       </c>
@@ -11990,7 +13289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>40597</v>
       </c>
@@ -12004,7 +13303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>22361</v>
       </c>
@@ -12018,7 +13317,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>14605</v>
       </c>
@@ -12032,7 +13331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>31429</v>
       </c>
@@ -12046,7 +13345,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>21972</v>
       </c>
@@ -12060,7 +13359,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>31468</v>
       </c>
@@ -12074,7 +13373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>30501</v>
       </c>
@@ -12088,7 +13387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>36184</v>
       </c>
@@ -12102,7 +13401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>37800</v>
       </c>
@@ -12116,7 +13415,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>14416</v>
       </c>
@@ -12130,7 +13429,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>49284</v>
       </c>
@@ -12144,7 +13443,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>21053</v>
       </c>
@@ -12158,7 +13457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>11157</v>
       </c>
@@ -12172,7 +13471,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>24232</v>
       </c>
@@ -12186,7 +13485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>24158</v>
       </c>
@@ -12200,7 +13499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>22338</v>
       </c>
@@ -12214,7 +13513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>17779</v>
       </c>
@@ -12228,7 +13527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>29054</v>
       </c>
@@ -12242,7 +13541,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>42459</v>
       </c>
@@ -12256,7 +13555,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>10737</v>
       </c>
@@ -12270,7 +13569,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>43337</v>
       </c>
@@ -12284,7 +13583,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>49718</v>
       </c>
@@ -12298,7 +13597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>29321</v>
       </c>
@@ -12312,7 +13611,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>24234</v>
       </c>
@@ -12326,7 +13625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>32140</v>
       </c>
@@ -12340,7 +13639,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>24993</v>
       </c>
@@ -12354,7 +13653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>41175</v>
       </c>
@@ -12368,7 +13667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>34785</v>
       </c>
@@ -12382,7 +13681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>28931</v>
       </c>
@@ -12396,7 +13695,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>33576</v>
       </c>
@@ -12410,7 +13709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>19486</v>
       </c>
@@ -12424,7 +13723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>36549</v>
       </c>
@@ -12438,7 +13737,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>29010</v>
       </c>
@@ -12452,7 +13751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>41732</v>
       </c>
@@ -12466,7 +13765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>19114</v>
       </c>
@@ -12480,7 +13779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>42572</v>
       </c>
@@ -12494,7 +13793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>24182</v>
       </c>
@@ -12508,7 +13807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>30789</v>
       </c>
@@ -12522,7 +13821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>16484</v>
       </c>
